--- a/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
+++ b/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
@@ -1651,16 +1651,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="14" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3992,11 +3992,11 @@
       <c r="B11" s="11"/>
       <c r="C11" s="9"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
       <c r="M11" s="13" t="s">
         <v>12</v>
       </c>
@@ -4004,21 +4004,21 @@
     <row r="12" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="9"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:21" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="9"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -4477,36 +4477,36 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="204" t="s">
+      <c r="B33" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205">
+      <c r="C33" s="205"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="203">
         <f>(E31/100)*10</f>
         <v>3.7</v>
       </c>
-      <c r="F33" s="205">
+      <c r="F33" s="203">
         <f>(F31/100)*10</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="G33" s="205">
+      <c r="G33" s="203">
         <f t="shared" ref="G33:K33" si="3">(G31/100)*10</f>
         <v>3.3000000000000003</v>
       </c>
-      <c r="H33" s="205">
+      <c r="H33" s="203">
         <f t="shared" si="3"/>
         <v>3.625</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="J33" s="205">
+      <c r="J33" s="203">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
-      <c r="K33" s="205">
+      <c r="K33" s="203">
         <f t="shared" si="3"/>
         <v>3.85</v>
       </c>
@@ -4515,51 +4515,51 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="205"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
       <c r="L34" s="56"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="204" t="s">
+      <c r="B35" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205">
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="203">
         <f>(E31/100)*90</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="F35" s="205">
+      <c r="F35" s="203">
         <f t="shared" ref="F35:K35" si="4">(F31/100)*90</f>
         <v>29.700000000000003</v>
       </c>
-      <c r="G35" s="205">
+      <c r="G35" s="203">
         <f t="shared" si="4"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="H35" s="205">
+      <c r="H35" s="203">
         <f t="shared" si="4"/>
         <v>32.625</v>
       </c>
-      <c r="I35" s="205">
+      <c r="I35" s="203">
         <f t="shared" si="4"/>
         <v>34.65</v>
       </c>
-      <c r="J35" s="205">
+      <c r="J35" s="203">
         <f t="shared" si="4"/>
         <v>34.65</v>
       </c>
-      <c r="K35" s="205">
+      <c r="K35" s="203">
         <f t="shared" si="4"/>
         <v>34.65</v>
       </c>
@@ -4568,16 +4568,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
-      <c r="B36" s="204"/>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="205"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="203"/>
       <c r="L36" s="56"/>
       <c r="M36" s="5"/>
     </row>
@@ -5147,101 +5147,101 @@
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="204" t="s">
+      <c r="B63" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="204"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="205">
+      <c r="C63" s="205"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="203">
         <f>(E61/100)*10</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="F63" s="205">
+      <c r="F63" s="203">
         <f t="shared" ref="F63:K63" si="10">(F61/100)*10</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="G63" s="205">
+      <c r="G63" s="203">
         <f t="shared" si="10"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="H63" s="205">
+      <c r="H63" s="203">
         <f t="shared" si="10"/>
         <v>4.75</v>
       </c>
-      <c r="I63" s="205">
+      <c r="I63" s="203">
         <f t="shared" si="10"/>
         <v>5.2</v>
       </c>
-      <c r="J63" s="205">
+      <c r="J63" s="203">
         <f t="shared" si="10"/>
         <v>5.2</v>
       </c>
-      <c r="K63" s="205">
+      <c r="K63" s="203">
         <f t="shared" si="10"/>
         <v>5.2</v>
       </c>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="205"/>
-      <c r="F64" s="205"/>
-      <c r="G64" s="205"/>
-      <c r="H64" s="205"/>
-      <c r="I64" s="205"/>
-      <c r="J64" s="205"/>
-      <c r="K64" s="205"/>
+      <c r="B64" s="205"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="203"/>
+      <c r="F64" s="203"/>
+      <c r="G64" s="203"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="203"/>
+      <c r="J64" s="203"/>
+      <c r="K64" s="203"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="204" t="s">
+      <c r="B65" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="204"/>
-      <c r="D65" s="204"/>
-      <c r="E65" s="205">
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="203">
         <f>(E61/100)*90</f>
         <v>44.1</v>
       </c>
-      <c r="F65" s="205">
+      <c r="F65" s="203">
         <f t="shared" ref="F65:K65" si="11">(F61/100)*90</f>
         <v>36.9</v>
       </c>
-      <c r="G65" s="205">
+      <c r="G65" s="203">
         <f t="shared" si="11"/>
         <v>36.9</v>
       </c>
-      <c r="H65" s="205">
+      <c r="H65" s="203">
         <f t="shared" si="11"/>
         <v>42.75</v>
       </c>
-      <c r="I65" s="205">
+      <c r="I65" s="203">
         <f t="shared" si="11"/>
         <v>46.800000000000004</v>
       </c>
-      <c r="J65" s="205">
+      <c r="J65" s="203">
         <f t="shared" si="11"/>
         <v>46.800000000000004</v>
       </c>
-      <c r="K65" s="205">
+      <c r="K65" s="203">
         <f t="shared" si="11"/>
         <v>46.800000000000004</v>
       </c>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="204"/>
-      <c r="C66" s="204"/>
-      <c r="D66" s="204"/>
-      <c r="E66" s="205"/>
-      <c r="F66" s="205"/>
-      <c r="G66" s="205"/>
-      <c r="H66" s="205"/>
-      <c r="I66" s="205"/>
-      <c r="J66" s="205"/>
-      <c r="K66" s="205"/>
+      <c r="B66" s="205"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="205"/>
+      <c r="E66" s="203"/>
+      <c r="F66" s="203"/>
+      <c r="G66" s="203"/>
+      <c r="H66" s="203"/>
+      <c r="I66" s="203"/>
+      <c r="J66" s="203"/>
+      <c r="K66" s="203"/>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -5799,101 +5799,101 @@
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="206" t="s">
+      <c r="B93" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="206"/>
-      <c r="D93" s="206"/>
-      <c r="E93" s="205">
+      <c r="C93" s="204"/>
+      <c r="D93" s="204"/>
+      <c r="E93" s="203">
         <f>(E91/100)*10</f>
         <v>10.725999999999999</v>
       </c>
-      <c r="F93" s="205">
+      <c r="F93" s="203">
         <f t="shared" ref="F93:K93" si="17">(F91/100)*10</f>
         <v>11.261000000000001</v>
       </c>
-      <c r="G93" s="205">
+      <c r="G93" s="203">
         <f t="shared" si="17"/>
         <v>10.725999999999999</v>
       </c>
-      <c r="H93" s="205">
+      <c r="H93" s="203">
         <f t="shared" si="17"/>
         <v>13.25</v>
       </c>
-      <c r="I93" s="205">
+      <c r="I93" s="203">
         <f t="shared" si="17"/>
         <v>10.837000000000002</v>
       </c>
-      <c r="J93" s="205">
+      <c r="J93" s="203">
         <f t="shared" si="17"/>
         <v>11.585000000000001</v>
       </c>
-      <c r="K93" s="205">
+      <c r="K93" s="203">
         <f t="shared" si="17"/>
         <v>11.585000000000001</v>
       </c>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="206"/>
-      <c r="C94" s="206"/>
-      <c r="D94" s="206"/>
-      <c r="E94" s="205"/>
-      <c r="F94" s="205"/>
-      <c r="G94" s="205"/>
-      <c r="H94" s="205"/>
-      <c r="I94" s="205"/>
-      <c r="J94" s="205"/>
-      <c r="K94" s="205"/>
+      <c r="B94" s="204"/>
+      <c r="C94" s="204"/>
+      <c r="D94" s="204"/>
+      <c r="E94" s="203"/>
+      <c r="F94" s="203"/>
+      <c r="G94" s="203"/>
+      <c r="H94" s="203"/>
+      <c r="I94" s="203"/>
+      <c r="J94" s="203"/>
+      <c r="K94" s="203"/>
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="206" t="s">
+      <c r="B95" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="206"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="205">
+      <c r="C95" s="204"/>
+      <c r="D95" s="204"/>
+      <c r="E95" s="203">
         <f>(E91/100)*90</f>
         <v>96.534000000000006</v>
       </c>
-      <c r="F95" s="205">
+      <c r="F95" s="203">
         <f t="shared" ref="F95:K95" si="18">(F91/100)*90</f>
         <v>101.349</v>
       </c>
-      <c r="G95" s="205">
+      <c r="G95" s="203">
         <f t="shared" si="18"/>
         <v>96.534000000000006</v>
       </c>
-      <c r="H95" s="205">
+      <c r="H95" s="203">
         <f t="shared" si="18"/>
         <v>119.25</v>
       </c>
-      <c r="I95" s="205">
+      <c r="I95" s="203">
         <f t="shared" si="18"/>
         <v>97.533000000000015</v>
       </c>
-      <c r="J95" s="205">
+      <c r="J95" s="203">
         <f t="shared" si="18"/>
         <v>104.26500000000001</v>
       </c>
-      <c r="K95" s="205">
+      <c r="K95" s="203">
         <f t="shared" si="18"/>
         <v>104.26500000000001</v>
       </c>
       <c r="M95" s="5"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="206"/>
-      <c r="C96" s="206"/>
-      <c r="D96" s="206"/>
-      <c r="E96" s="205"/>
-      <c r="F96" s="205"/>
-      <c r="G96" s="205"/>
-      <c r="H96" s="205"/>
-      <c r="I96" s="205"/>
-      <c r="J96" s="205"/>
-      <c r="K96" s="205"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="204"/>
+      <c r="D96" s="204"/>
+      <c r="E96" s="203"/>
+      <c r="F96" s="203"/>
+      <c r="G96" s="203"/>
+      <c r="H96" s="203"/>
+      <c r="I96" s="203"/>
+      <c r="J96" s="203"/>
+      <c r="K96" s="203"/>
       <c r="M96" s="5"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -6413,103 +6413,103 @@
       <c r="M122" s="5"/>
     </row>
     <row r="123" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="206" t="s">
+      <c r="B123" s="204" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="206"/>
-      <c r="D123" s="206"/>
-      <c r="E123" s="205">
+      <c r="C123" s="204"/>
+      <c r="D123" s="204"/>
+      <c r="E123" s="203">
         <f>(E121/100)*10</f>
         <v>16.603000000000002</v>
       </c>
-      <c r="F123" s="205">
+      <c r="F123" s="203">
         <f t="shared" ref="F123:K123" si="24">(F121/100)*10</f>
         <v>16.603000000000002</v>
       </c>
-      <c r="G123" s="205">
+      <c r="G123" s="203">
         <f t="shared" si="24"/>
         <v>16.603000000000002</v>
       </c>
-      <c r="H123" s="205">
+      <c r="H123" s="203">
         <f t="shared" si="24"/>
         <v>18.593000000000004</v>
       </c>
-      <c r="I123" s="205">
+      <c r="I123" s="203">
         <f t="shared" si="24"/>
         <v>23.872000000000003</v>
       </c>
-      <c r="J123" s="205">
+      <c r="J123" s="203">
         <f t="shared" si="24"/>
         <v>23.872000000000003</v>
       </c>
-      <c r="K123" s="205">
+      <c r="K123" s="203">
         <f t="shared" si="24"/>
         <v>23.872000000000003</v>
       </c>
       <c r="M123" s="5"/>
     </row>
     <row r="124" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B124" s="206"/>
-      <c r="C124" s="206"/>
-      <c r="D124" s="206"/>
-      <c r="E124" s="205"/>
-      <c r="F124" s="205"/>
-      <c r="G124" s="205"/>
-      <c r="H124" s="205"/>
-      <c r="I124" s="205"/>
-      <c r="J124" s="205"/>
-      <c r="K124" s="205"/>
+      <c r="B124" s="204"/>
+      <c r="C124" s="204"/>
+      <c r="D124" s="204"/>
+      <c r="E124" s="203"/>
+      <c r="F124" s="203"/>
+      <c r="G124" s="203"/>
+      <c r="H124" s="203"/>
+      <c r="I124" s="203"/>
+      <c r="J124" s="203"/>
+      <c r="K124" s="203"/>
       <c r="L124" s="7"/>
       <c r="M124" s="5"/>
       <c r="U124" s="106"/>
     </row>
     <row r="125" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="206" t="s">
+      <c r="B125" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="C125" s="206"/>
-      <c r="D125" s="206"/>
-      <c r="E125" s="205">
+      <c r="C125" s="204"/>
+      <c r="D125" s="204"/>
+      <c r="E125" s="203">
         <f>(E121/100)*90</f>
         <v>149.42700000000002</v>
       </c>
-      <c r="F125" s="205">
+      <c r="F125" s="203">
         <f t="shared" ref="F125:K125" si="25">(F121/100)*90</f>
         <v>149.42700000000002</v>
       </c>
-      <c r="G125" s="205">
+      <c r="G125" s="203">
         <f t="shared" si="25"/>
         <v>149.42700000000002</v>
       </c>
-      <c r="H125" s="205">
+      <c r="H125" s="203">
         <f t="shared" si="25"/>
         <v>167.33700000000002</v>
       </c>
-      <c r="I125" s="205">
+      <c r="I125" s="203">
         <f t="shared" si="25"/>
         <v>214.84800000000004</v>
       </c>
-      <c r="J125" s="205">
+      <c r="J125" s="203">
         <f t="shared" si="25"/>
         <v>214.84800000000004</v>
       </c>
-      <c r="K125" s="205">
+      <c r="K125" s="203">
         <f t="shared" si="25"/>
         <v>214.84800000000004</v>
       </c>
       <c r="M125" s="5"/>
     </row>
     <row r="126" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B126" s="206"/>
-      <c r="C126" s="206"/>
-      <c r="D126" s="206"/>
-      <c r="E126" s="205"/>
-      <c r="F126" s="205"/>
-      <c r="G126" s="205"/>
-      <c r="H126" s="205"/>
-      <c r="I126" s="205"/>
-      <c r="J126" s="205"/>
-      <c r="K126" s="205"/>
+      <c r="B126" s="204"/>
+      <c r="C126" s="204"/>
+      <c r="D126" s="204"/>
+      <c r="E126" s="203"/>
+      <c r="F126" s="203"/>
+      <c r="G126" s="203"/>
+      <c r="H126" s="203"/>
+      <c r="I126" s="203"/>
+      <c r="J126" s="203"/>
+      <c r="K126" s="203"/>
       <c r="M126" s="5"/>
     </row>
     <row r="127" spans="2:21" x14ac:dyDescent="0.25">
@@ -6539,6 +6539,57 @@
     <protectedRange sqref="D27 D57 D87 D117" name="Range1"/>
   </protectedRanges>
   <mergeCells count="67">
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="B65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
     <mergeCell ref="J123:J124"/>
     <mergeCell ref="K123:K124"/>
     <mergeCell ref="B125:D126"/>
@@ -6555,57 +6606,6 @@
     <mergeCell ref="G123:G124"/>
     <mergeCell ref="H123:H124"/>
     <mergeCell ref="I123:I124"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="B65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M11" r:id="rId1"/>
@@ -6658,7 +6658,7 @@
         <v>46</v>
       </c>
       <c r="I1" s="109">
-        <v>43411</v>
+        <v>43665</v>
       </c>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
@@ -8072,29 +8072,29 @@
         <v>24</v>
       </c>
       <c r="D41" s="195">
-        <f>'20181101'!E$50</f>
-        <v>24</v>
+        <f>'20181101'!E60</f>
+        <v>25</v>
       </c>
       <c r="E41" s="196"/>
       <c r="F41" s="197">
         <f t="shared" ref="F41:G43" si="5">F$24*$C41+$D41</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="198">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H41" s="197">
         <f t="shared" ref="H41:J47" si="6">H$24*$C41+$D41</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I41" s="197">
         <f t="shared" si="6"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J41" s="197">
         <f t="shared" si="6"/>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K41" s="110"/>
       <c r="L41" s="183"/>
@@ -8117,29 +8117,29 @@
         <v>16</v>
       </c>
       <c r="D42" s="195">
-        <f>'20181101'!F$50</f>
-        <v>16</v>
+        <f>'20181101'!F60</f>
+        <v>25</v>
       </c>
       <c r="E42" s="196"/>
       <c r="F42" s="197">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G42" s="198">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H42" s="197">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I42" s="197">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J42" s="197">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K42" s="110"/>
       <c r="L42" s="110"/>
@@ -8162,29 +8162,29 @@
         <v>16</v>
       </c>
       <c r="D43" s="195">
-        <f>'20181101'!G$50</f>
-        <v>16</v>
+        <f>'20181101'!G60</f>
+        <v>25</v>
       </c>
       <c r="E43" s="196"/>
       <c r="F43" s="197">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G43" s="198">
         <f t="shared" si="5"/>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H43" s="197">
         <f>H$24*$C43+$D43</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I43" s="197">
         <f>I$24*$C43+$D43</f>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J43" s="197">
         <f t="shared" si="6"/>
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K43" s="110"/>
       <c r="L43" s="110"/>
@@ -8207,29 +8207,29 @@
         <v>22.5</v>
       </c>
       <c r="D44" s="195">
-        <f>'20181101'!H$50</f>
-        <v>22.5</v>
+        <f>'20181101'!H60</f>
+        <v>25</v>
       </c>
       <c r="E44" s="196"/>
       <c r="F44" s="197">
         <f>F$24*$C44+$D44</f>
-        <v>112.5</v>
+        <v>115</v>
       </c>
       <c r="G44" s="198">
         <f t="shared" ref="F44:G47" si="7">G$24*$C44+$D44</f>
-        <v>135</v>
+        <v>137.5</v>
       </c>
       <c r="H44" s="197">
         <f>H$24*$C44+$D44</f>
-        <v>135</v>
+        <v>137.5</v>
       </c>
       <c r="I44" s="197">
         <f>I$24*$C44+$D44</f>
-        <v>157.5</v>
+        <v>160</v>
       </c>
       <c r="J44" s="197">
         <f>J$24*$C44+$D44</f>
-        <v>157.5</v>
+        <v>160</v>
       </c>
       <c r="K44" s="110"/>
       <c r="L44" s="110"/>
@@ -8248,29 +8248,29 @@
         <v>27</v>
       </c>
       <c r="D45" s="195">
-        <f>'20181101'!I$50</f>
-        <v>27</v>
+        <f>'20181101'!I60</f>
+        <v>25</v>
       </c>
       <c r="E45" s="196"/>
       <c r="F45" s="197">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G45" s="198">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H45" s="197">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I45" s="197">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J45" s="197">
         <f>J$24*$C45+$D45</f>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K45" s="110"/>
       <c r="L45" s="110"/>
@@ -8293,29 +8293,29 @@
         <v>27</v>
       </c>
       <c r="D46" s="195">
-        <f>'20181101'!J$50</f>
-        <v>27</v>
+        <f>'20181101'!J60</f>
+        <v>25</v>
       </c>
       <c r="E46" s="199"/>
       <c r="F46" s="197">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G46" s="198">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H46" s="197">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I46" s="197">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J46" s="197">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K46" s="110"/>
       <c r="L46" s="110"/>
@@ -8338,29 +8338,29 @@
         <v>27</v>
       </c>
       <c r="D47" s="195">
-        <f>'20181101'!K$50</f>
-        <v>27</v>
+        <f>'20181101'!K60</f>
+        <v>25</v>
       </c>
       <c r="E47" s="199"/>
       <c r="F47" s="197">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G47" s="198">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H47" s="197">
         <f t="shared" si="6"/>
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I47" s="197">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J47" s="197">
         <f t="shared" si="6"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K47" s="110"/>
       <c r="N47" s="110"/>

--- a/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
+++ b/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5db78464b72cba/Desktop/UWPRrates/approved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Priska's Stuff\UWPR costcenter\UWPR_Rates\2022\Approved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{288AF6F0-F8EA-41BA-A5E1-32F070339B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF5A858D-E7B4-445B-86F9-C6ABDA85D34D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3A84D721-9E77-4873-A7F3-B6A3728F7691}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="20201101" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="rates">[2]Analysis!$I$6:$K$10</definedName>
     <definedName name="Yes_No">'[1]Selection Options'!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Priska von Haller</author>
   </authors>
   <commentList>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{F0850749-EFAF-4A88-A4CF-5CBC8317AEE9}">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{24FA1AF0-34F9-46F2-A756-BC5C84B0A8DB}">
+    <comment ref="C24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{80E7EC4B-0A57-4A44-B9DF-314A11F642B4}">
+    <comment ref="C41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,61 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C42" authorId="0" shapeId="0" xr:uid="{6166EF03-D776-4211-A703-203685AD642D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The remaining 90% of the total cost will be applied only if instrument time is used, i.e. not canceled by user:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{3DB8C1AF-FCFE-4F05-A0D7-97FE90D0B526}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Non-refundable sign up fee of 10% is applied when instrument time is scheduled via the web portal:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{CD511304-EAB4-412F-80C3-E601164F26AD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The remaining 90% of the total cost will be applied only if instrument time is used, i.e. not canceled by user:</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{F8C5EDD4-0E3E-4CA1-93E9-3C0BC5648B53}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Non-refundable sign up fee of 10% is applied when instrument time is scheduled via the web portal:
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{7AA6B4C5-1295-4E81-A86F-D4689392AC1D}">
+    <comment ref="C42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,13 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
-  <si>
-    <t>Rates effective 11/1/2020 subject to change without notice</t>
-  </si>
-  <si>
-    <t>Revised 10/27/2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Instrumentation:</t>
   </si>
@@ -246,12 +185,6 @@
   </si>
   <si>
     <t>UW Internal Rates With Additional Labor</t>
-  </si>
-  <si>
-    <t>External Billing Rates - Non Profit With Additional Labor</t>
-  </si>
-  <si>
-    <t>External Billing Rates - Commercial With Additional Labor</t>
   </si>
   <si>
     <t>last updated</t>
@@ -492,11 +425,17 @@
   <si>
     <t>Default Gradient Information:</t>
   </si>
+  <si>
+    <t>Rates effective 11/1/2021 subject to change without notice</t>
+  </si>
+  <si>
+    <t>Revised 10/28/2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -957,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,18 +924,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1154,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1371,55 +1298,6 @@
     <xf numFmtId="44" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="20" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1440,7 +1318,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
@@ -1452,7 +1330,7 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1486,7 +1364,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1549,18 +1427,18 @@
     <xf numFmtId="44" fontId="9" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="53" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="53" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="53" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="53" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="47" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1572,10 +1450,10 @@
     <xf numFmtId="42" fontId="39" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="55" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="55" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1619,59 +1497,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="61" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="61" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="62" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="54" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="63" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="63" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="54" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="54" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="55" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="55" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="53" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="53" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="53" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="53" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="55" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="55" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="53" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="53" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="55" fillId="11" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="55" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1686,7 +1564,7 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1710,25 +1588,25 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1737,8 +1615,14 @@
     <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="55" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="55" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1746,28 +1630,10 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1776,9 +1642,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 4" xfId="3" xr:uid="{1FACFA27-9735-457B-9BA2-F9B9E047B19F}"/>
+    <cellStyle name="Hyperlink 4" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{208E3D34-5786-4586-9A22-CB0EA95EB8E9}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -4104,12 +3970,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1DAF7-BCCA-46D3-B1FE-9CF374D5C548}">
-  <dimension ref="B1:V84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,130 +3994,130 @@
   <sheetData>
     <row r="1" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="K3" s="5" t="s">
+    <row r="4" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="K4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="K4" s="5" t="s">
+    <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="K5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="K5" s="5" t="s">
+    <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="K6" s="5" t="s">
+    <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="K7" s="5" t="s">
+    <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="K8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="K8" s="5" t="s">
+    <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="K9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="K9" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4126,7 @@
     <row r="11" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
@@ -4307,25 +4173,25 @@
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
       <c r="E14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="H14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="24" t="s">
+      <c r="K14" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="25"/>
@@ -4340,10 +4206,10 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="212" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="213"/>
+      <c r="C15" s="193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="194"/>
       <c r="E15" s="28">
         <v>13.5</v>
       </c>
@@ -4366,8 +4232,8 @@
         <v>15.5</v>
       </c>
       <c r="M15" s="27"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
       <c r="R15" s="29"/>
@@ -4401,7 +4267,7 @@
     <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="32">
         <v>1</v>
@@ -4449,7 +4315,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="42">
@@ -4494,7 +4360,7 @@
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="45">
@@ -4532,7 +4398,7 @@
     <row r="21" spans="2:22" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="46"/>
       <c r="C21" s="47" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="48"/>
       <c r="E21" s="49">
@@ -4597,10 +4463,10 @@
       <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="215" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="216"/>
+      <c r="C23" s="195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="196"/>
       <c r="E23" s="55">
         <f t="shared" ref="E23:K23" si="2">(E21/100)*10</f>
         <v>3.85</v>
@@ -4629,8 +4495,8 @@
         <f t="shared" si="2"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="N23" s="217"/>
-      <c r="O23" s="217"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
       <c r="P23" s="56"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
@@ -4640,10 +4506,10 @@
       <c r="V23" s="56"/>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="215" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="216"/>
+      <c r="C24" s="195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="196"/>
       <c r="E24" s="55">
         <f t="shared" ref="E24:K24" si="3">(E21/100)*90</f>
         <v>34.65</v>
@@ -4672,8 +4538,8 @@
         <f t="shared" si="3"/>
         <v>36.450000000000003</v>
       </c>
-      <c r="N24" s="217"/>
-      <c r="O24" s="217"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="192"/>
       <c r="P24" s="56"/>
       <c r="Q24" s="56"/>
       <c r="R24" s="56"/>
@@ -4768,7 +4634,7 @@
     </row>
     <row r="30" spans="2:22" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="60"/>
@@ -4814,25 +4680,25 @@
       <c r="C32" s="22"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="G32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>7</v>
-      </c>
       <c r="H32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="24" t="s">
+      <c r="K32" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>15</v>
       </c>
       <c r="N32" s="25"/>
       <c r="O32" s="26"/>
@@ -4846,11 +4712,11 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
-      <c r="C33" s="212" t="str">
+      <c r="C33" s="193" t="str">
         <f>C15</f>
         <v>Hourly Rate</v>
       </c>
-      <c r="D33" s="213"/>
+      <c r="D33" s="194"/>
       <c r="E33" s="68">
         <v>27</v>
       </c>
@@ -4872,8 +4738,8 @@
       <c r="K33" s="68">
         <v>31</v>
       </c>
-      <c r="N33" s="214"/>
-      <c r="O33" s="214"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
@@ -4906,7 +4772,7 @@
     <row r="35" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D35" s="32">
         <v>1</v>
@@ -4952,7 +4818,7 @@
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42">
@@ -4996,7 +4862,7 @@
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="45">
@@ -5097,10 +4963,10 @@
       <c r="V40" s="70"/>
     </row>
     <row r="41" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="215" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="216"/>
+      <c r="C41" s="195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="196"/>
       <c r="E41" s="55">
         <f>(E39/100)*10</f>
         <v>5.2</v>
@@ -5129,8 +4995,8 @@
         <f t="shared" si="6"/>
         <v>5.6000000000000005</v>
       </c>
-      <c r="N41" s="217"/>
-      <c r="O41" s="217"/>
+      <c r="N41" s="192"/>
+      <c r="O41" s="192"/>
       <c r="P41" s="56"/>
       <c r="Q41" s="56"/>
       <c r="R41" s="56"/>
@@ -5140,10 +5006,10 @@
       <c r="V41" s="56"/>
     </row>
     <row r="42" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="215" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="216"/>
+      <c r="C42" s="195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="196"/>
       <c r="E42" s="55">
         <f t="shared" ref="E42:K42" si="7">(E39/100)*90</f>
         <v>46.800000000000004</v>
@@ -5172,8 +5038,8 @@
         <f t="shared" si="7"/>
         <v>50.400000000000006</v>
       </c>
-      <c r="N42" s="217"/>
-      <c r="O42" s="217"/>
+      <c r="N42" s="192"/>
+      <c r="O42" s="192"/>
       <c r="P42" s="56"/>
       <c r="Q42" s="56"/>
       <c r="R42" s="56"/>
@@ -5242,949 +5108,27 @@
       <c r="J47" s="70"/>
       <c r="K47" s="70"/>
     </row>
-    <row r="48" spans="2:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="74"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="79"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G50" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="218" t="str">
-        <f>C15</f>
-        <v>Hourly Rate</v>
-      </c>
-      <c r="D51" s="219"/>
-      <c r="E51" s="83">
-        <v>63.154093495710683</v>
-      </c>
-      <c r="F51" s="83">
-        <v>54.606093495710681</v>
-      </c>
-      <c r="G51" s="83">
-        <v>63.74925275471162</v>
-      </c>
-      <c r="H51" s="83">
-        <v>50.33209349571068</v>
-      </c>
-      <c r="I51" s="83">
-        <v>54.606093495710681</v>
-      </c>
-      <c r="J51" s="83">
-        <v>64.592341733783158</v>
-      </c>
-      <c r="K51" s="83">
-        <v>64.592341733783158</v>
-      </c>
-      <c r="N51" s="214"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-    </row>
-    <row r="53" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="32">
-        <v>1</v>
-      </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42">
-        <f t="shared" ref="E55:K55" si="8">$D$53*E51</f>
-        <v>63.154093495710683</v>
-      </c>
-      <c r="F55" s="42">
-        <f t="shared" si="8"/>
-        <v>54.606093495710681</v>
-      </c>
-      <c r="G55" s="42">
-        <f t="shared" si="8"/>
-        <v>63.74925275471162</v>
-      </c>
-      <c r="H55" s="42">
-        <f t="shared" si="8"/>
-        <v>50.33209349571068</v>
-      </c>
-      <c r="I55" s="42">
-        <f t="shared" si="8"/>
-        <v>54.606093495710681</v>
-      </c>
-      <c r="J55" s="42">
-        <f t="shared" si="8"/>
-        <v>64.592341733783158</v>
-      </c>
-      <c r="K55" s="42">
-        <f t="shared" si="8"/>
-        <v>64.592341733783158</v>
-      </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="F56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="G56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="H56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="I56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="J56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="K56" s="83">
-        <v>84.228820121783002</v>
-      </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="70"/>
-      <c r="Q56" s="70"/>
-      <c r="R56" s="70"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="U56" s="70"/>
-      <c r="V56" s="70"/>
-    </row>
-    <row r="57" spans="2:22" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="46"/>
-      <c r="C57" s="47" t="str">
-        <f>C39</f>
-        <v>Total Cost:</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49">
-        <f>E56+E55</f>
-        <v>147.38291361749367</v>
-      </c>
-      <c r="F57" s="49">
-        <f t="shared" ref="F57:K57" si="9">F56+F55</f>
-        <v>138.83491361749367</v>
-      </c>
-      <c r="G57" s="49">
-        <f t="shared" si="9"/>
-        <v>147.97807287649462</v>
-      </c>
-      <c r="H57" s="49">
-        <f t="shared" si="9"/>
-        <v>134.56091361749367</v>
-      </c>
-      <c r="I57" s="49">
-        <f t="shared" si="9"/>
-        <v>138.83491361749367</v>
-      </c>
-      <c r="J57" s="49">
-        <f t="shared" si="9"/>
-        <v>148.82116185556617</v>
-      </c>
-      <c r="K57" s="49">
-        <f t="shared" si="9"/>
-        <v>148.82116185556617</v>
-      </c>
-      <c r="N57" s="51"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-    </row>
-    <row r="58" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-    </row>
-    <row r="59" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="220" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="221"/>
-      <c r="E59" s="55">
-        <f>(E57/100)*10</f>
-        <v>14.738291361749367</v>
-      </c>
-      <c r="F59" s="55">
-        <f t="shared" ref="F59:K59" si="10">(F57/100)*10</f>
-        <v>13.883491361749368</v>
-      </c>
-      <c r="G59" s="55">
-        <f t="shared" si="10"/>
-        <v>14.797807287649462</v>
-      </c>
-      <c r="H59" s="55">
-        <f t="shared" si="10"/>
-        <v>13.456091361749367</v>
-      </c>
-      <c r="I59" s="55">
-        <f t="shared" si="10"/>
-        <v>13.883491361749368</v>
-      </c>
-      <c r="J59" s="55">
-        <f t="shared" si="10"/>
-        <v>14.882116185556617</v>
-      </c>
-      <c r="K59" s="55">
-        <f t="shared" si="10"/>
-        <v>14.882116185556617</v>
-      </c>
-      <c r="N59" s="217"/>
-      <c r="O59" s="217"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
-      <c r="V59" s="56"/>
-    </row>
-    <row r="60" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="220" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="221"/>
-      <c r="E60" s="55">
-        <f t="shared" ref="E60:K60" si="11">(E57/100)*90</f>
-        <v>132.64462225574431</v>
-      </c>
-      <c r="F60" s="55">
-        <f t="shared" si="11"/>
-        <v>124.9514222557443</v>
-      </c>
-      <c r="G60" s="55">
-        <f t="shared" si="11"/>
-        <v>133.18026558884517</v>
-      </c>
-      <c r="H60" s="55">
-        <f t="shared" si="11"/>
-        <v>121.10482225574431</v>
-      </c>
-      <c r="I60" s="55">
-        <f t="shared" si="11"/>
-        <v>124.9514222557443</v>
-      </c>
-      <c r="J60" s="55">
-        <f t="shared" si="11"/>
-        <v>133.93904567000956</v>
-      </c>
-      <c r="K60" s="55">
-        <f t="shared" si="11"/>
-        <v>133.93904567000956</v>
-      </c>
-      <c r="N60" s="217"/>
-      <c r="O60" s="217"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-    </row>
-    <row r="66" spans="2:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="C66" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="74"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="58"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="58"/>
-      <c r="U66" s="58"/>
-      <c r="V66" s="58"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C67" s="75"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="79"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="67"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="67"/>
-      <c r="T67" s="67"/>
-      <c r="U67" s="67"/>
-      <c r="V67" s="67"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="G68" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="K68" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C69" s="218" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="219"/>
-      <c r="E69" s="91">
-        <v>128.33259349571068</v>
-      </c>
-      <c r="F69" s="91">
-        <v>128.33259349571068</v>
-      </c>
-      <c r="G69" s="91">
-        <v>200.51725275471162</v>
-      </c>
-      <c r="H69" s="91">
-        <v>197.7850934957107</v>
-      </c>
-      <c r="I69" s="91">
-        <v>199.9220934957107</v>
-      </c>
-      <c r="J69" s="91">
-        <v>201.36034173378317</v>
-      </c>
-      <c r="K69" s="91">
-        <v>201.36034173378317</v>
-      </c>
-      <c r="N69" s="214"/>
-      <c r="O69" s="214"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="70"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="70"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="70"/>
-      <c r="R70" s="70"/>
-      <c r="S70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="U70" s="70"/>
-      <c r="V70" s="70"/>
-    </row>
-    <row r="71" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="32">
-        <v>1</v>
-      </c>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="33"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="33"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="42">
-        <f>$D$71*E69</f>
-        <v>128.33259349571068</v>
-      </c>
-      <c r="F73" s="42">
-        <f t="shared" ref="F73:K73" si="12">$D$71*F69</f>
-        <v>128.33259349571068</v>
-      </c>
-      <c r="G73" s="42">
-        <f t="shared" si="12"/>
-        <v>200.51725275471162</v>
-      </c>
-      <c r="H73" s="42">
-        <f t="shared" si="12"/>
-        <v>197.7850934957107</v>
-      </c>
-      <c r="I73" s="42">
-        <f t="shared" si="12"/>
-        <v>199.9220934957107</v>
-      </c>
-      <c r="J73" s="42">
-        <f t="shared" si="12"/>
-        <v>201.36034173378317</v>
-      </c>
-      <c r="K73" s="42">
-        <f t="shared" si="12"/>
-        <v>201.36034173378317</v>
-      </c>
-      <c r="N73" s="30"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="C74" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="F74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="G74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="H74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="I74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="J74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="K74" s="83">
-        <v>110.94132012178299</v>
-      </c>
-      <c r="N74" s="30"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="70"/>
-      <c r="Q74" s="70"/>
-      <c r="R74" s="70"/>
-      <c r="S74" s="70"/>
-      <c r="T74" s="70"/>
-      <c r="U74" s="70"/>
-      <c r="V74" s="70"/>
-    </row>
-    <row r="75" spans="2:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="27"/>
-      <c r="C75" s="47" t="str">
-        <f>C57</f>
-        <v>Total Cost:</v>
-      </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49">
-        <f>E74+E73</f>
-        <v>239.27391361749369</v>
-      </c>
-      <c r="F75" s="49">
-        <f t="shared" ref="F75:K75" si="13">F74+F73</f>
-        <v>239.27391361749369</v>
-      </c>
-      <c r="G75" s="49">
-        <f t="shared" si="13"/>
-        <v>311.4585728764946</v>
-      </c>
-      <c r="H75" s="49">
-        <f t="shared" si="13"/>
-        <v>308.72641361749368</v>
-      </c>
-      <c r="I75" s="49">
-        <f t="shared" si="13"/>
-        <v>310.86341361749368</v>
-      </c>
-      <c r="J75" s="49">
-        <f t="shared" si="13"/>
-        <v>312.30166185556618</v>
-      </c>
-      <c r="K75" s="49">
-        <f t="shared" si="13"/>
-        <v>312.30166185556618</v>
-      </c>
-      <c r="N75" s="51"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="53"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="53"/>
-      <c r="S75" s="53"/>
-      <c r="T75" s="53"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53"/>
-    </row>
-    <row r="76" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-    </row>
-    <row r="77" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="220" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="221"/>
-      <c r="E77" s="55">
-        <f>(E75/100)*10</f>
-        <v>23.927391361749368</v>
-      </c>
-      <c r="F77" s="55">
-        <f t="shared" ref="F77:K77" si="14">(F75/100)*10</f>
-        <v>23.927391361749368</v>
-      </c>
-      <c r="G77" s="55">
-        <f t="shared" si="14"/>
-        <v>31.145857287649463</v>
-      </c>
-      <c r="H77" s="55">
-        <f t="shared" si="14"/>
-        <v>30.87264136174937</v>
-      </c>
-      <c r="I77" s="55">
-        <f t="shared" si="14"/>
-        <v>31.086341361749366</v>
-      </c>
-      <c r="J77" s="55">
-        <f t="shared" si="14"/>
-        <v>31.230166185556616</v>
-      </c>
-      <c r="K77" s="55">
-        <f t="shared" si="14"/>
-        <v>31.230166185556616</v>
-      </c>
-      <c r="N77" s="217"/>
-      <c r="O77" s="217"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="56"/>
-      <c r="S77" s="56"/>
-      <c r="T77" s="56"/>
-      <c r="U77" s="56"/>
-      <c r="V77" s="56"/>
-    </row>
-    <row r="78" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="220" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="221"/>
-      <c r="E78" s="55">
-        <f>(E75/100)*90</f>
-        <v>215.3465222557443</v>
-      </c>
-      <c r="F78" s="55">
-        <f t="shared" ref="F78:K78" si="15">(F75/100)*90</f>
-        <v>215.3465222557443</v>
-      </c>
-      <c r="G78" s="55">
-        <f t="shared" si="15"/>
-        <v>280.31271558884515</v>
-      </c>
-      <c r="H78" s="55">
-        <f t="shared" si="15"/>
-        <v>277.85377225574433</v>
-      </c>
-      <c r="I78" s="55">
-        <f t="shared" si="15"/>
-        <v>279.77707225574432</v>
-      </c>
-      <c r="J78" s="55">
-        <f t="shared" si="15"/>
-        <v>281.07149567000954</v>
-      </c>
-      <c r="K78" s="55">
-        <f t="shared" si="15"/>
-        <v>281.07149567000954</v>
-      </c>
-      <c r="N78" s="217"/>
-      <c r="O78" s="217"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="56"/>
-      <c r="T78" s="56"/>
-      <c r="U78" s="56"/>
-      <c r="V78" s="56"/>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="D17 D35 D53 D71 O17 O35 O53 O71" name="Range1"/>
+    <protectedRange sqref="D17 D35 O17 O35" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="24">
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="N60:O60"/>
+  <mergeCells count="12">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="N41:O41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="N24:O24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" display="for a detailed description check out our website resources page" xr:uid="{05593457-4EAE-473B-9E8D-37A250B83B0A}"/>
+    <hyperlink ref="K9" r:id="rId1" display="for a detailed description check out our website resources page"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -6193,7 +5137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79AB974-7C77-4C08-9C16-50B098A6CFB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6205,7 +5149,7 @@
     <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="200" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="179" customWidth="1"/>
     <col min="5" max="9" width="15.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
@@ -6230,30 +5174,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="210" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="199"/>
-      <c r="G1" s="157" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="158">
+      <c r="B1" s="189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="178"/>
+      <c r="G1" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="137">
         <v>44131</v>
       </c>
       <c r="AH1" s="5"/>
     </row>
     <row r="2" spans="1:41" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
-        <v>66</v>
+      <c r="B2" s="71" t="s">
+        <v>62</v>
       </c>
       <c r="AH2" s="5"/>
     </row>
-    <row r="3" spans="1:41" s="93" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="129"/>
+    <row r="3" spans="1:41" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -6278,197 +5222,197 @@
       <c r="AO3" s="6"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="108"/>
+      <c r="AH4" s="5"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B5" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="AH6" s="76"/>
+    </row>
+    <row r="7" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="77"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="AH7" s="78"/>
+    </row>
+    <row r="8" spans="1:41" s="72" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+    </row>
+    <row r="9" spans="1:41" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="81"/>
+      <c r="AM9" s="81"/>
+      <c r="AN9" s="81"/>
+      <c r="AO9" s="81"/>
+    </row>
+    <row r="10" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="83">
+        <v>1</v>
+      </c>
+      <c r="F10" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="129"/>
-      <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="G10" s="83">
+        <v>1</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="AH10" s="87"/>
+    </row>
+    <row r="11" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-    </row>
-    <row r="6" spans="1:41" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="AH6" s="97"/>
-    </row>
-    <row r="7" spans="1:41" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="AH7" s="99"/>
-    </row>
-    <row r="8" spans="1:41" s="93" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
+      <c r="C11" s="83">
+        <v>0</v>
+      </c>
+      <c r="F11" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="102"/>
-    </row>
-    <row r="9" spans="1:41" s="93" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-    </row>
-    <row r="10" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="93" t="s">
+      <c r="G11" s="83">
+        <v>0</v>
+      </c>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="88"/>
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="88"/>
+      <c r="AN11" s="88"/>
+    </row>
+    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="72"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="AH12" s="15"/>
+    </row>
+    <row r="13" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="104">
-        <v>1</v>
-      </c>
-      <c r="F10" s="105" t="s">
+      <c r="C13" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="104">
-        <v>1</v>
-      </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="AH10" s="108"/>
-    </row>
-    <row r="11" spans="1:41" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="F13" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="104">
-        <v>0</v>
-      </c>
-      <c r="F11" s="105" t="s">
+      <c r="G13" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="104">
-        <v>0</v>
-      </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="AI11" s="109"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="109"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-    </row>
-    <row r="12" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="93"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="AH12" s="15"/>
-    </row>
-    <row r="13" spans="1:41" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="173" t="s">
+      <c r="H13" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="175" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="176" t="s">
+      <c r="I13" s="157" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="176" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="176" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="178" t="s">
-        <v>45</v>
       </c>
       <c r="AH13" s="15"/>
     </row>
     <row r="14" spans="1:41" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="112">
+      <c r="B14" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="91">
         <v>110</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="91">
         <f>C$10*G$10</f>
         <v>1</v>
       </c>
-      <c r="E14" s="159">
+      <c r="E14" s="138">
         <f>ROUNDUP(((C14*D14)/60),0)</f>
         <v>2</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="93" t="s">
-        <v>47</v>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="72" t="s">
+        <v>43</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -6493,36 +5437,36 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="15"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="114"/>
-      <c r="AJ14" s="114"/>
-      <c r="AK14" s="114"/>
-      <c r="AL14" s="114"/>
-      <c r="AM14" s="114"/>
-      <c r="AN14" s="114"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
+      <c r="AJ14" s="93"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
     </row>
     <row r="15" spans="1:41" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="112">
+      <c r="B15" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="91">
         <v>140</v>
       </c>
-      <c r="D15" s="112">
+      <c r="D15" s="91">
         <f>C$10*G$10</f>
         <v>1</v>
       </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="166">
+      <c r="E15" s="140"/>
+      <c r="F15" s="145">
         <f>ROUNDUP(((C15*D15)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="93" t="s">
-        <v>49</v>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="72" t="s">
+        <v>45</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -6547,36 +5491,36 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="15"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="116"/>
-      <c r="AJ15" s="116"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="95"/>
+      <c r="AM15" s="95"/>
+      <c r="AN15" s="95"/>
     </row>
     <row r="16" spans="1:41" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="112">
+      <c r="B16" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="91">
         <v>170</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="91">
         <f>C$10*G$10</f>
         <v>1</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="159">
+      <c r="E16" s="140"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="138">
         <f>ROUNDUP(((C16*D16)/60),0)</f>
         <v>3</v>
       </c>
-      <c r="H16" s="161"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="93" t="s">
-        <v>51</v>
+      <c r="H16" s="140"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="72" t="s">
+        <v>47</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -6601,36 +5545,36 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="15"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
     </row>
     <row r="17" spans="1:40" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="112">
+      <c r="B17" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="91">
         <v>230</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="91">
         <f>C$10*G$10</f>
         <v>1</v>
       </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="159">
+      <c r="E17" s="140"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="138">
         <f>ROUNDUP(((C17*D17)/60),0)</f>
         <v>4</v>
       </c>
-      <c r="I17" s="162"/>
-      <c r="J17" s="93" t="s">
-        <v>53</v>
+      <c r="I17" s="141"/>
+      <c r="J17" s="72" t="s">
+        <v>49</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -6655,42 +5599,42 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="15"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="117"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
     </row>
     <row r="18" spans="1:40" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="118">
+      <c r="B18" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="97">
         <v>200</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="91">
         <f>C$10*G$10</f>
         <v>1</v>
       </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="163">
+      <c r="E18" s="140"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="142">
         <f>ROUNDUP(((C18*D18)/60),0)</f>
         <v>4</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -6709,48 +5653,48 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="15"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="117"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
     </row>
     <row r="19" spans="1:40" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="112">
+      <c r="B19" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="91">
         <v>75</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="91">
         <f>G11</f>
         <v>0</v>
       </c>
-      <c r="E19" s="159">
+      <c r="E19" s="138">
         <f t="shared" ref="E19:I20" si="0">ROUNDUP((($C19*$D19)/60),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="166">
+      <c r="F19" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="159">
+      <c r="H19" s="138">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="163">
+      <c r="I19" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="120" t="s">
-        <v>57</v>
+      <c r="J19" s="99" t="s">
+        <v>53</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -6775,48 +5719,48 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="15"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="117"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
     </row>
     <row r="20" spans="1:40" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="122">
+      <c r="B20" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="101">
         <v>40</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D20" s="101">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="E20" s="164">
+      <c r="E20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="167">
+      <c r="F20" s="146">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="164">
+      <c r="G20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="164">
+      <c r="H20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="165">
+      <c r="I20" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="120" t="s">
-        <v>59</v>
+      <c r="J20" s="99" t="s">
+        <v>55</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -6841,88 +5785,88 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="15"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="117"/>
-    </row>
-    <row r="21" spans="1:40" s="128" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="123"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="204" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="181">
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="96"/>
+    </row>
+    <row r="21" spans="1:40" s="107" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="102"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="183" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="160">
         <f>SUM(E14:E20)+2</f>
         <v>4</v>
       </c>
-      <c r="F21" s="177">
+      <c r="F21" s="156">
         <f t="shared" ref="F21:I21" si="1">SUM(F14:F20)+2</f>
         <v>5</v>
       </c>
-      <c r="G21" s="181">
+      <c r="G21" s="160">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H21" s="181">
+      <c r="H21" s="160">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I21" s="211">
+      <c r="I21" s="190">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J21" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="123"/>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="126"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="127"/>
-      <c r="AK21" s="127"/>
-      <c r="AL21" s="127"/>
-      <c r="AM21" s="127"/>
-      <c r="AN21" s="127"/>
+      <c r="J21" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="106"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="106"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="106"/>
     </row>
     <row r="22" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6944,27 +5888,27 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="15"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="117"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
     </row>
     <row r="23" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6986,29 +5930,29 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="15"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="117"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="117"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="96"/>
     </row>
     <row r="24" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="155" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
+      <c r="B24" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="161"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7030,104 +5974,104 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="15"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-    </row>
-    <row r="25" spans="1:40" s="102" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="185"/>
-      <c r="C25" s="186" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="186" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="186" t="s">
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="96"/>
+      <c r="AN24" s="96"/>
+    </row>
+    <row r="25" spans="1:40" s="81" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="166" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="187" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="186" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="186" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="188" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="152"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="153"/>
-      <c r="AK25" s="153"/>
-      <c r="AL25" s="153"/>
-      <c r="AM25" s="153"/>
-      <c r="AN25" s="153"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="132"/>
+      <c r="AL25" s="132"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
     </row>
     <row r="26" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="189" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="190">
+      <c r="B26" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="169">
         <v>13.5</v>
       </c>
-      <c r="D26" s="190">
+      <c r="D26" s="169">
         <v>25</v>
       </c>
-      <c r="E26" s="191">
+      <c r="E26" s="170">
         <f>E$21*$C26+$D26</f>
         <v>79</v>
       </c>
-      <c r="F26" s="192">
+      <c r="F26" s="171">
         <f>F$21*$C26+$D26</f>
         <v>92.5</v>
       </c>
-      <c r="G26" s="191">
+      <c r="G26" s="170">
         <f t="shared" ref="G26:I32" si="2">G$21*$C26+$D26</f>
         <v>92.5</v>
       </c>
-      <c r="H26" s="191">
+      <c r="H26" s="170">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="I26" s="193">
+      <c r="I26" s="172">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -7149,48 +6093,48 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="96"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="96"/>
+      <c r="AN26" s="96"/>
     </row>
     <row r="27" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="190">
+      <c r="B27" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="169">
         <v>9</v>
       </c>
-      <c r="D27" s="190">
+      <c r="D27" s="169">
         <v>25</v>
       </c>
-      <c r="E27" s="191">
+      <c r="E27" s="170">
         <f t="shared" ref="E27:F32" si="3">E$21*$C27+$D27</f>
         <v>61</v>
       </c>
-      <c r="F27" s="192">
+      <c r="F27" s="171">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G27" s="191">
+      <c r="G27" s="170">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="H27" s="191">
+      <c r="H27" s="170">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="I27" s="193">
+      <c r="I27" s="172">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -7212,48 +6156,48 @@
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="117"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="96"/>
+      <c r="AK27" s="96"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="96"/>
     </row>
     <row r="28" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="189" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="190">
+      <c r="B28" s="168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="169">
         <v>15.5</v>
       </c>
-      <c r="D28" s="190">
+      <c r="D28" s="169">
         <v>25</v>
       </c>
-      <c r="E28" s="191">
+      <c r="E28" s="170">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="F28" s="192">
+      <c r="F28" s="171">
         <f t="shared" si="3"/>
         <v>102.5</v>
       </c>
-      <c r="G28" s="191">
+      <c r="G28" s="170">
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="H28" s="191">
+      <c r="H28" s="170">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I28" s="193">
+      <c r="I28" s="172">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -7275,48 +6219,48 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="30"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="117"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="117"/>
-      <c r="AN28" s="117"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="96"/>
+      <c r="AK28" s="96"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="96"/>
+      <c r="AN28" s="96"/>
     </row>
     <row r="29" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="190">
+      <c r="B29" s="168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="169">
         <v>12</v>
       </c>
-      <c r="D29" s="190">
+      <c r="D29" s="169">
         <v>25</v>
       </c>
-      <c r="E29" s="191">
+      <c r="E29" s="170">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="F29" s="192">
+      <c r="F29" s="171">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="G29" s="191">
+      <c r="G29" s="170">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="H29" s="191">
+      <c r="H29" s="170">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="I29" s="193">
+      <c r="I29" s="172">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -7338,48 +6282,48 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="30"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="117"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="117"/>
-      <c r="AN29" s="117"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
+      <c r="AJ29" s="96"/>
+      <c r="AK29" s="96"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="96"/>
+      <c r="AN29" s="96"/>
     </row>
     <row r="30" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="189" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="190">
+      <c r="B30" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="169">
         <v>15.5</v>
       </c>
-      <c r="D30" s="190">
+      <c r="D30" s="169">
         <v>25</v>
       </c>
-      <c r="E30" s="191">
+      <c r="E30" s="170">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="F30" s="192">
+      <c r="F30" s="171">
         <f t="shared" si="3"/>
         <v>102.5</v>
       </c>
-      <c r="G30" s="191">
+      <c r="G30" s="170">
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="H30" s="191">
+      <c r="H30" s="170">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I30" s="193">
+      <c r="I30" s="172">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -7401,522 +6345,522 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="30"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="117"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="117"/>
-      <c r="AN30" s="117"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
+      <c r="AJ30" s="96"/>
+      <c r="AK30" s="96"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="96"/>
+      <c r="AN30" s="96"/>
     </row>
     <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="190">
+      <c r="B31" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="169">
         <v>15.5</v>
       </c>
-      <c r="D31" s="190">
+      <c r="D31" s="169">
         <v>25</v>
       </c>
-      <c r="E31" s="191">
+      <c r="E31" s="170">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="F31" s="192">
+      <c r="F31" s="171">
         <f t="shared" si="3"/>
         <v>102.5</v>
       </c>
-      <c r="G31" s="191">
+      <c r="G31" s="170">
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="H31" s="191">
+      <c r="H31" s="170">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I31" s="193">
+      <c r="I31" s="172">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
       <c r="AG31" s="30"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="117"/>
-      <c r="AL31" s="117"/>
-      <c r="AM31" s="117"/>
-      <c r="AN31" s="117"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
+      <c r="AJ31" s="96"/>
+      <c r="AK31" s="96"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="96"/>
+      <c r="AN31" s="96"/>
     </row>
     <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="194" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="195">
+      <c r="B32" s="173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="174">
         <v>15.5</v>
       </c>
-      <c r="D32" s="195">
+      <c r="D32" s="174">
         <v>25</v>
       </c>
-      <c r="E32" s="196">
+      <c r="E32" s="175">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="F32" s="197">
+      <c r="F32" s="176">
         <f t="shared" si="3"/>
         <v>102.5</v>
       </c>
-      <c r="G32" s="196">
+      <c r="G32" s="175">
         <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
-      <c r="H32" s="196">
+      <c r="H32" s="175">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="I32" s="198">
+      <c r="I32" s="177">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="J32" s="135"/>
+      <c r="J32" s="114"/>
       <c r="AG32" s="30"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="117"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="117"/>
-      <c r="AN32" s="117"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
+      <c r="AJ32" s="96"/>
+      <c r="AK32" s="96"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="96"/>
+      <c r="AN32" s="96"/>
     </row>
     <row r="33" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="93"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="135"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="114"/>
       <c r="AG33" s="30"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="117"/>
-      <c r="AN33" s="117"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="96"/>
     </row>
     <row r="34" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="93"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="135"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="114"/>
       <c r="AG34" s="30"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="117"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="117"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="96"/>
+      <c r="AK34" s="96"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="96"/>
+      <c r="AN34" s="96"/>
     </row>
     <row r="35" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="95"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="207"/>
-      <c r="E35" s="170"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="149"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
       <c r="AG35" s="30"/>
-      <c r="AH35" s="116"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="117"/>
-      <c r="AN35" s="117"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="96"/>
+      <c r="AJ35" s="96"/>
+      <c r="AK35" s="96"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="96"/>
+      <c r="AN35" s="96"/>
     </row>
     <row r="36" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="155" t="s">
+      <c r="B36" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="187"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="AH36" s="95"/>
+      <c r="AI36" s="96"/>
+      <c r="AJ36" s="96"/>
+      <c r="AK36" s="96"/>
+      <c r="AL36" s="96"/>
+      <c r="AM36" s="96"/>
+      <c r="AN36" s="96"/>
+    </row>
+    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="127"/>
+      <c r="C37" s="133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="133" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="133" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="120"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="96"/>
+      <c r="AJ37" s="96"/>
+      <c r="AK37" s="96"/>
+      <c r="AL37" s="96"/>
+      <c r="AM37" s="96"/>
+      <c r="AN37" s="96"/>
+    </row>
+    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="112">
         <v>27</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="AH36" s="116"/>
-      <c r="AI36" s="117"/>
-      <c r="AJ36" s="117"/>
-      <c r="AK36" s="117"/>
-      <c r="AL36" s="117"/>
-      <c r="AM36" s="117"/>
-      <c r="AN36" s="117"/>
-    </row>
-    <row r="37" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="148"/>
-      <c r="C37" s="154" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="154" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="150" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="154" t="s">
-        <v>45</v>
-      </c>
-      <c r="K37" s="141"/>
-      <c r="AH37" s="116"/>
-      <c r="AI37" s="117"/>
-      <c r="AJ37" s="117"/>
-      <c r="AK37" s="117"/>
-      <c r="AL37" s="117"/>
-      <c r="AM37" s="117"/>
-      <c r="AN37" s="117"/>
-    </row>
-    <row r="38" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="133">
-        <v>27</v>
-      </c>
-      <c r="D38" s="133">
+      <c r="D38" s="112">
         <v>25</v>
       </c>
-      <c r="E38" s="156">
+      <c r="E38" s="135">
         <f t="shared" ref="E38:I44" si="4">E$21*$C38+$D38</f>
         <v>133</v>
       </c>
-      <c r="F38" s="134">
+      <c r="F38" s="113">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="G38" s="156">
+      <c r="G38" s="135">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="H38" s="156">
+      <c r="H38" s="135">
         <f t="shared" si="4"/>
         <v>187</v>
       </c>
-      <c r="I38" s="156">
+      <c r="I38" s="135">
         <f t="shared" si="4"/>
         <v>187</v>
       </c>
-      <c r="K38" s="141"/>
-      <c r="AH38" s="116"/>
-      <c r="AI38" s="117"/>
-      <c r="AJ38" s="117"/>
-      <c r="AK38" s="117"/>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="117"/>
-      <c r="AN38" s="117"/>
+      <c r="K38" s="120"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="96"/>
+      <c r="AJ38" s="96"/>
+      <c r="AK38" s="96"/>
+      <c r="AL38" s="96"/>
+      <c r="AM38" s="96"/>
+      <c r="AN38" s="96"/>
     </row>
     <row r="39" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="133">
+      <c r="B39" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="112">
         <v>18</v>
       </c>
-      <c r="D39" s="133">
+      <c r="D39" s="112">
         <v>25</v>
       </c>
-      <c r="E39" s="156">
+      <c r="E39" s="135">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="F39" s="134">
+      <c r="F39" s="113">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="G39" s="156">
+      <c r="G39" s="135">
         <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="H39" s="156">
+      <c r="H39" s="135">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="I39" s="156">
+      <c r="I39" s="135">
         <f t="shared" si="4"/>
         <v>133</v>
       </c>
-      <c r="AH39" s="116"/>
-      <c r="AI39" s="117"/>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="117"/>
-      <c r="AL39" s="117"/>
-      <c r="AM39" s="117"/>
-      <c r="AN39" s="117"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="96"/>
+      <c r="AJ39" s="96"/>
+      <c r="AK39" s="96"/>
+      <c r="AL39" s="96"/>
+      <c r="AM39" s="96"/>
+      <c r="AN39" s="96"/>
     </row>
     <row r="40" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="133">
+      <c r="B40" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="112">
         <v>31</v>
       </c>
-      <c r="D40" s="133">
+      <c r="D40" s="112">
         <v>25</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="135">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="F40" s="134">
+      <c r="F40" s="113">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="135">
         <f>G$21*$C40+$D40</f>
         <v>180</v>
       </c>
-      <c r="H40" s="156">
+      <c r="H40" s="135">
         <f>H$21*$C40+$D40</f>
         <v>211</v>
       </c>
-      <c r="I40" s="156">
+      <c r="I40" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="AH40" s="116"/>
-      <c r="AI40" s="117"/>
-      <c r="AJ40" s="117"/>
-      <c r="AK40" s="117"/>
-      <c r="AL40" s="117"/>
-      <c r="AM40" s="117"/>
-      <c r="AN40" s="117"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="96"/>
+      <c r="AJ40" s="96"/>
+      <c r="AK40" s="96"/>
+      <c r="AL40" s="96"/>
+      <c r="AM40" s="96"/>
+      <c r="AN40" s="96"/>
     </row>
     <row r="41" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="133">
+      <c r="B41" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="112">
         <v>24</v>
       </c>
-      <c r="D41" s="133">
+      <c r="D41" s="112">
         <v>25</v>
       </c>
-      <c r="E41" s="156">
+      <c r="E41" s="135">
         <f>E$21*$C41+$D41</f>
         <v>121</v>
       </c>
-      <c r="F41" s="134">
+      <c r="F41" s="113">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="G41" s="156">
+      <c r="G41" s="135">
         <f>G$21*$C41+$D41</f>
         <v>145</v>
       </c>
-      <c r="H41" s="156">
+      <c r="H41" s="135">
         <f>H$21*$C41+$D41</f>
         <v>169</v>
       </c>
-      <c r="I41" s="156">
+      <c r="I41" s="135">
         <f>I$21*$C41+$D41</f>
         <v>169</v>
       </c>
-      <c r="AJ41" s="142"/>
-      <c r="AL41" s="142"/>
-      <c r="AN41" s="142"/>
+      <c r="AJ41" s="121"/>
+      <c r="AL41" s="121"/>
+      <c r="AN41" s="121"/>
     </row>
     <row r="42" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="146" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="133">
+      <c r="B42" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="112">
         <v>31</v>
       </c>
-      <c r="D42" s="133">
+      <c r="D42" s="112">
         <v>25</v>
       </c>
-      <c r="E42" s="156">
+      <c r="E42" s="135">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="F42" s="134">
+      <c r="F42" s="113">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G42" s="156">
+      <c r="G42" s="135">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="H42" s="156">
+      <c r="H42" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="I42" s="156">
+      <c r="I42" s="135">
         <f>I$21*$C42+$D42</f>
         <v>211</v>
       </c>
-      <c r="AH42" s="113"/>
-      <c r="AI42" s="114"/>
-      <c r="AJ42" s="114"/>
-      <c r="AK42" s="114"/>
-      <c r="AL42" s="114"/>
-      <c r="AM42" s="114"/>
-      <c r="AN42" s="114"/>
+      <c r="AH42" s="92"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="93"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="93"/>
+      <c r="AM42" s="93"/>
+      <c r="AN42" s="93"/>
     </row>
     <row r="43" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="133">
+      <c r="B43" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="112">
         <v>31</v>
       </c>
-      <c r="D43" s="133">
+      <c r="D43" s="112">
         <v>25</v>
       </c>
-      <c r="E43" s="156">
+      <c r="E43" s="135">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="F43" s="134">
+      <c r="F43" s="113">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G43" s="156">
+      <c r="G43" s="135">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="H43" s="156">
+      <c r="H43" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="I43" s="156">
+      <c r="I43" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="AH43" s="116"/>
-      <c r="AI43" s="116"/>
-      <c r="AJ43" s="116"/>
-      <c r="AK43" s="116"/>
-      <c r="AL43" s="116"/>
-      <c r="AM43" s="116"/>
-      <c r="AN43" s="116"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
     </row>
     <row r="44" spans="1:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="146" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="133">
+      <c r="B44" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="112">
         <v>31</v>
       </c>
-      <c r="D44" s="133">
+      <c r="D44" s="112">
         <v>25</v>
       </c>
-      <c r="E44" s="156">
+      <c r="E44" s="135">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="113">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="G44" s="156">
+      <c r="G44" s="135">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="H44" s="156">
+      <c r="H44" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="I44" s="156">
+      <c r="I44" s="135">
         <f t="shared" si="4"/>
         <v>211</v>
       </c>
-      <c r="AH44" s="116"/>
-      <c r="AI44" s="116"/>
-      <c r="AJ44" s="116"/>
-      <c r="AK44" s="116"/>
-      <c r="AL44" s="116"/>
-      <c r="AM44" s="116"/>
-      <c r="AN44" s="116"/>
-    </row>
-    <row r="45" spans="1:41" s="93" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="95"/>
+    </row>
+    <row r="45" spans="1:41" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="AG45" s="15"/>
-      <c r="AH45" s="116"/>
-      <c r="AI45" s="143"/>
-      <c r="AJ45" s="143"/>
-      <c r="AK45" s="143"/>
-      <c r="AL45" s="143"/>
-      <c r="AM45" s="143"/>
-      <c r="AN45" s="143"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="122"/>
+      <c r="AJ45" s="122"/>
+      <c r="AK45" s="122"/>
+      <c r="AL45" s="122"/>
+      <c r="AM45" s="122"/>
+      <c r="AN45" s="122"/>
       <c r="AO45" s="6"/>
     </row>
-    <row r="46" spans="1:41" s="93" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" s="72" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="AG46" s="15"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="143"/>
-      <c r="AJ46" s="143"/>
-      <c r="AK46" s="143"/>
-      <c r="AL46" s="143"/>
-      <c r="AM46" s="143"/>
-      <c r="AN46" s="143"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="122"/>
+      <c r="AJ46" s="122"/>
+      <c r="AK46" s="122"/>
+      <c r="AL46" s="122"/>
+      <c r="AM46" s="122"/>
+      <c r="AN46" s="122"/>
       <c r="AO46" s="6"/>
     </row>
     <row r="47" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -7941,24 +6885,24 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="15"/>
-      <c r="AH47" s="116"/>
-      <c r="AI47" s="143"/>
-      <c r="AJ47" s="143"/>
-      <c r="AK47" s="143"/>
-      <c r="AL47" s="143"/>
-      <c r="AM47" s="143"/>
-      <c r="AN47" s="143"/>
+      <c r="AH47" s="95"/>
+      <c r="AI47" s="122"/>
+      <c r="AJ47" s="122"/>
+      <c r="AK47" s="122"/>
+      <c r="AL47" s="122"/>
+      <c r="AM47" s="122"/>
+      <c r="AN47" s="122"/>
     </row>
     <row r="48" spans="1:41" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -7983,24 +6927,24 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="15"/>
-      <c r="AH48" s="116"/>
-      <c r="AI48" s="143"/>
-      <c r="AJ48" s="143"/>
-      <c r="AK48" s="143"/>
-      <c r="AL48" s="143"/>
-      <c r="AM48" s="143"/>
-      <c r="AN48" s="143"/>
+      <c r="AH48" s="95"/>
+      <c r="AI48" s="122"/>
+      <c r="AJ48" s="122"/>
+      <c r="AK48" s="122"/>
+      <c r="AL48" s="122"/>
+      <c r="AM48" s="122"/>
+      <c r="AN48" s="122"/>
     </row>
     <row r="49" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -8025,24 +6969,24 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="15"/>
-      <c r="AH49" s="116"/>
-      <c r="AI49" s="143"/>
-      <c r="AJ49" s="143"/>
-      <c r="AK49" s="143"/>
-      <c r="AL49" s="143"/>
-      <c r="AM49" s="143"/>
-      <c r="AN49" s="143"/>
+      <c r="AH49" s="95"/>
+      <c r="AI49" s="122"/>
+      <c r="AJ49" s="122"/>
+      <c r="AK49" s="122"/>
+      <c r="AL49" s="122"/>
+      <c r="AM49" s="122"/>
+      <c r="AN49" s="122"/>
     </row>
     <row r="50" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -8067,24 +7011,24 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="15"/>
-      <c r="AH50" s="116"/>
-      <c r="AI50" s="143"/>
-      <c r="AJ50" s="143"/>
-      <c r="AK50" s="143"/>
-      <c r="AL50" s="143"/>
-      <c r="AM50" s="143"/>
-      <c r="AN50" s="143"/>
+      <c r="AH50" s="95"/>
+      <c r="AI50" s="122"/>
+      <c r="AJ50" s="122"/>
+      <c r="AK50" s="122"/>
+      <c r="AL50" s="122"/>
+      <c r="AM50" s="122"/>
+      <c r="AN50" s="122"/>
     </row>
     <row r="51" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -8109,24 +7053,24 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="15"/>
-      <c r="AH51" s="116"/>
-      <c r="AI51" s="143"/>
-      <c r="AJ51" s="143"/>
-      <c r="AK51" s="143"/>
-      <c r="AL51" s="143"/>
-      <c r="AM51" s="143"/>
-      <c r="AN51" s="143"/>
+      <c r="AH51" s="95"/>
+      <c r="AI51" s="122"/>
+      <c r="AJ51" s="122"/>
+      <c r="AK51" s="122"/>
+      <c r="AL51" s="122"/>
+      <c r="AM51" s="122"/>
+      <c r="AN51" s="122"/>
     </row>
     <row r="52" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="129"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -8151,19 +7095,19 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="15"/>
-      <c r="AH52" s="116"/>
-      <c r="AI52" s="143"/>
-      <c r="AJ52" s="143"/>
-      <c r="AK52" s="143"/>
-      <c r="AL52" s="143"/>
-      <c r="AM52" s="143"/>
-      <c r="AN52" s="143"/>
+      <c r="AH52" s="95"/>
+      <c r="AI52" s="122"/>
+      <c r="AJ52" s="122"/>
+      <c r="AK52" s="122"/>
+      <c r="AL52" s="122"/>
+      <c r="AM52" s="122"/>
+      <c r="AN52" s="122"/>
     </row>
     <row r="53" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="207"/>
+      <c r="D53" s="186"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -8175,8 +7119,8 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -8193,24 +7137,24 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="15"/>
-      <c r="AH53" s="116"/>
-      <c r="AI53" s="143"/>
-      <c r="AJ53" s="143"/>
-      <c r="AK53" s="143"/>
-      <c r="AL53" s="143"/>
-      <c r="AM53" s="143"/>
-      <c r="AN53" s="143"/>
+      <c r="AH53" s="95"/>
+      <c r="AI53" s="122"/>
+      <c r="AJ53" s="122"/>
+      <c r="AK53" s="122"/>
+      <c r="AL53" s="122"/>
+      <c r="AM53" s="122"/>
+      <c r="AN53" s="122"/>
     </row>
     <row r="54" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -8235,24 +7179,24 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="15"/>
-      <c r="AH54" s="116"/>
-      <c r="AI54" s="143"/>
-      <c r="AJ54" s="143"/>
-      <c r="AK54" s="143"/>
-      <c r="AL54" s="143"/>
-      <c r="AM54" s="143"/>
-      <c r="AN54" s="143"/>
+      <c r="AH54" s="95"/>
+      <c r="AI54" s="122"/>
+      <c r="AJ54" s="122"/>
+      <c r="AK54" s="122"/>
+      <c r="AL54" s="122"/>
+      <c r="AM54" s="122"/>
+      <c r="AN54" s="122"/>
     </row>
     <row r="55" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="137"/>
-      <c r="I55" s="137"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -8277,24 +7221,24 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="15"/>
-      <c r="AH55" s="116"/>
-      <c r="AI55" s="143"/>
-      <c r="AJ55" s="143"/>
-      <c r="AK55" s="143"/>
-      <c r="AL55" s="143"/>
-      <c r="AM55" s="143"/>
-      <c r="AN55" s="143"/>
+      <c r="AH55" s="95"/>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122"/>
+      <c r="AK55" s="122"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122"/>
+      <c r="AN55" s="122"/>
     </row>
     <row r="56" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
-      <c r="I56" s="137"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -8319,24 +7263,24 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="15"/>
-      <c r="AH56" s="116"/>
-      <c r="AI56" s="143"/>
-      <c r="AJ56" s="143"/>
-      <c r="AK56" s="143"/>
-      <c r="AL56" s="143"/>
-      <c r="AM56" s="143"/>
-      <c r="AN56" s="143"/>
+      <c r="AH56" s="95"/>
+      <c r="AI56" s="122"/>
+      <c r="AJ56" s="122"/>
+      <c r="AK56" s="122"/>
+      <c r="AL56" s="122"/>
+      <c r="AM56" s="122"/>
+      <c r="AN56" s="122"/>
     </row>
     <row r="57" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -8361,24 +7305,24 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="15"/>
-      <c r="AH57" s="116"/>
-      <c r="AI57" s="143"/>
-      <c r="AJ57" s="143"/>
-      <c r="AK57" s="143"/>
-      <c r="AL57" s="143"/>
-      <c r="AM57" s="143"/>
-      <c r="AN57" s="143"/>
+      <c r="AH57" s="95"/>
+      <c r="AI57" s="122"/>
+      <c r="AJ57" s="122"/>
+      <c r="AK57" s="122"/>
+      <c r="AL57" s="122"/>
+      <c r="AM57" s="122"/>
+      <c r="AN57" s="122"/>
     </row>
     <row r="58" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -8403,24 +7347,24 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="15"/>
-      <c r="AH58" s="116"/>
-      <c r="AI58" s="143"/>
-      <c r="AJ58" s="143"/>
-      <c r="AK58" s="143"/>
-      <c r="AL58" s="143"/>
-      <c r="AM58" s="143"/>
-      <c r="AN58" s="143"/>
+      <c r="AH58" s="95"/>
+      <c r="AI58" s="122"/>
+      <c r="AJ58" s="122"/>
+      <c r="AK58" s="122"/>
+      <c r="AL58" s="122"/>
+      <c r="AM58" s="122"/>
+      <c r="AN58" s="122"/>
     </row>
     <row r="59" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="137"/>
-      <c r="I59" s="137"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -8445,24 +7389,24 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="15"/>
-      <c r="AH59" s="116"/>
-      <c r="AI59" s="143"/>
-      <c r="AJ59" s="143"/>
-      <c r="AK59" s="143"/>
-      <c r="AL59" s="143"/>
-      <c r="AM59" s="143"/>
-      <c r="AN59" s="143"/>
+      <c r="AH59" s="95"/>
+      <c r="AI59" s="122"/>
+      <c r="AJ59" s="122"/>
+      <c r="AK59" s="122"/>
+      <c r="AL59" s="122"/>
+      <c r="AM59" s="122"/>
+      <c r="AN59" s="122"/>
     </row>
     <row r="60" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -8487,19 +7431,19 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="15"/>
-      <c r="AH60" s="116"/>
-      <c r="AI60" s="143"/>
-      <c r="AJ60" s="143"/>
-      <c r="AK60" s="143"/>
-      <c r="AL60" s="143"/>
-      <c r="AM60" s="143"/>
-      <c r="AN60" s="143"/>
+      <c r="AH60" s="95"/>
+      <c r="AI60" s="122"/>
+      <c r="AJ60" s="122"/>
+      <c r="AK60" s="122"/>
+      <c r="AL60" s="122"/>
+      <c r="AM60" s="122"/>
+      <c r="AN60" s="122"/>
     </row>
     <row r="61" spans="1:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="200"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -8529,19 +7473,19 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="15"/>
-      <c r="AH61" s="116"/>
-      <c r="AI61" s="143"/>
-      <c r="AJ61" s="143"/>
-      <c r="AK61" s="143"/>
-      <c r="AL61" s="143"/>
-      <c r="AM61" s="143"/>
-      <c r="AN61" s="143"/>
+      <c r="AH61" s="95"/>
+      <c r="AI61" s="122"/>
+      <c r="AJ61" s="122"/>
+      <c r="AK61" s="122"/>
+      <c r="AL61" s="122"/>
+      <c r="AM61" s="122"/>
+      <c r="AN61" s="122"/>
     </row>
     <row r="62" spans="1:40" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="200"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -8571,19 +7515,19 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="15"/>
-      <c r="AH62" s="116"/>
-      <c r="AI62" s="143"/>
-      <c r="AJ62" s="143"/>
-      <c r="AK62" s="143"/>
-      <c r="AL62" s="143"/>
-      <c r="AM62" s="143"/>
-      <c r="AN62" s="143"/>
+      <c r="AH62" s="95"/>
+      <c r="AI62" s="122"/>
+      <c r="AJ62" s="122"/>
+      <c r="AK62" s="122"/>
+      <c r="AL62" s="122"/>
+      <c r="AM62" s="122"/>
+      <c r="AN62" s="122"/>
     </row>
     <row r="63" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="200"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -8613,19 +7557,19 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="15"/>
-      <c r="AH63" s="116"/>
-      <c r="AI63" s="143"/>
-      <c r="AJ63" s="143"/>
-      <c r="AK63" s="143"/>
-      <c r="AL63" s="143"/>
-      <c r="AM63" s="143"/>
-      <c r="AN63" s="143"/>
+      <c r="AH63" s="95"/>
+      <c r="AI63" s="122"/>
+      <c r="AJ63" s="122"/>
+      <c r="AK63" s="122"/>
+      <c r="AL63" s="122"/>
+      <c r="AM63" s="122"/>
+      <c r="AN63" s="122"/>
     </row>
     <row r="64" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="200"/>
+      <c r="D64" s="179"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -8640,7 +7584,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="144"/>
+      <c r="S64" s="123"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -8655,19 +7599,19 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
       <c r="AG64" s="15"/>
-      <c r="AH64" s="116"/>
-      <c r="AI64" s="143"/>
-      <c r="AJ64" s="143"/>
-      <c r="AK64" s="143"/>
-      <c r="AL64" s="143"/>
-      <c r="AM64" s="143"/>
-      <c r="AN64" s="143"/>
+      <c r="AH64" s="95"/>
+      <c r="AI64" s="122"/>
+      <c r="AJ64" s="122"/>
+      <c r="AK64" s="122"/>
+      <c r="AL64" s="122"/>
+      <c r="AM64" s="122"/>
+      <c r="AN64" s="122"/>
     </row>
     <row r="65" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="200"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -8682,7 +7626,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="144"/>
+      <c r="S65" s="123"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -8697,19 +7641,19 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
       <c r="AG65" s="15"/>
-      <c r="AH65" s="116"/>
-      <c r="AI65" s="143"/>
-      <c r="AJ65" s="143"/>
-      <c r="AK65" s="143"/>
-      <c r="AL65" s="143"/>
-      <c r="AM65" s="143"/>
-      <c r="AN65" s="143"/>
+      <c r="AH65" s="95"/>
+      <c r="AI65" s="122"/>
+      <c r="AJ65" s="122"/>
+      <c r="AK65" s="122"/>
+      <c r="AL65" s="122"/>
+      <c r="AM65" s="122"/>
+      <c r="AN65" s="122"/>
     </row>
     <row r="66" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="200"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -8724,7 +7668,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="144"/>
+      <c r="S66" s="123"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -8739,19 +7683,19 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
       <c r="AG66" s="15"/>
-      <c r="AH66" s="116"/>
-      <c r="AI66" s="143"/>
-      <c r="AJ66" s="143"/>
-      <c r="AK66" s="143"/>
-      <c r="AL66" s="143"/>
-      <c r="AM66" s="143"/>
-      <c r="AN66" s="143"/>
+      <c r="AH66" s="95"/>
+      <c r="AI66" s="122"/>
+      <c r="AJ66" s="122"/>
+      <c r="AK66" s="122"/>
+      <c r="AL66" s="122"/>
+      <c r="AM66" s="122"/>
+      <c r="AN66" s="122"/>
     </row>
     <row r="67" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="200"/>
+      <c r="D67" s="179"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -8766,7 +7710,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="144"/>
+      <c r="S67" s="123"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -8781,19 +7725,19 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
       <c r="AG67" s="15"/>
-      <c r="AH67" s="116"/>
-      <c r="AI67" s="143"/>
-      <c r="AJ67" s="143"/>
-      <c r="AK67" s="143"/>
-      <c r="AL67" s="143"/>
-      <c r="AM67" s="143"/>
-      <c r="AN67" s="143"/>
+      <c r="AH67" s="95"/>
+      <c r="AI67" s="122"/>
+      <c r="AJ67" s="122"/>
+      <c r="AK67" s="122"/>
+      <c r="AL67" s="122"/>
+      <c r="AM67" s="122"/>
+      <c r="AN67" s="122"/>
     </row>
     <row r="68" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="200"/>
+      <c r="D68" s="179"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -8808,7 +7752,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="144"/>
+      <c r="S68" s="123"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -8823,19 +7767,19 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
       <c r="AG68" s="15"/>
-      <c r="AH68" s="116"/>
-      <c r="AI68" s="143"/>
-      <c r="AJ68" s="143"/>
-      <c r="AK68" s="143"/>
-      <c r="AL68" s="143"/>
-      <c r="AM68" s="143"/>
-      <c r="AN68" s="143"/>
+      <c r="AH68" s="95"/>
+      <c r="AI68" s="122"/>
+      <c r="AJ68" s="122"/>
+      <c r="AK68" s="122"/>
+      <c r="AL68" s="122"/>
+      <c r="AM68" s="122"/>
+      <c r="AN68" s="122"/>
     </row>
     <row r="69" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="200"/>
+      <c r="D69" s="179"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -8850,7 +7794,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="144"/>
+      <c r="S69" s="123"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -8870,7 +7814,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="200"/>
+      <c r="D70" s="179"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -8885,7 +7829,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="144"/>
+      <c r="S70" s="123"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -8900,19 +7844,19 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="15"/>
-      <c r="AH70" s="113"/>
-      <c r="AI70" s="114"/>
-      <c r="AJ70" s="114"/>
-      <c r="AK70" s="114"/>
-      <c r="AL70" s="114"/>
-      <c r="AM70" s="114"/>
-      <c r="AN70" s="114"/>
+      <c r="AH70" s="92"/>
+      <c r="AI70" s="93"/>
+      <c r="AJ70" s="93"/>
+      <c r="AK70" s="93"/>
+      <c r="AL70" s="93"/>
+      <c r="AM70" s="93"/>
+      <c r="AN70" s="93"/>
     </row>
     <row r="71" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="200"/>
+      <c r="D71" s="179"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -8927,7 +7871,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="144"/>
+      <c r="S71" s="123"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -8942,19 +7886,19 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
       <c r="AG71" s="15"/>
-      <c r="AH71" s="116"/>
-      <c r="AI71" s="116"/>
-      <c r="AJ71" s="116"/>
-      <c r="AK71" s="116"/>
-      <c r="AL71" s="116"/>
-      <c r="AM71" s="116"/>
-      <c r="AN71" s="116"/>
+      <c r="AH71" s="95"/>
+      <c r="AI71" s="95"/>
+      <c r="AJ71" s="95"/>
+      <c r="AK71" s="95"/>
+      <c r="AL71" s="95"/>
+      <c r="AM71" s="95"/>
+      <c r="AN71" s="95"/>
     </row>
     <row r="72" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="200"/>
+      <c r="D72" s="179"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -8984,19 +7928,19 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
       <c r="AG72" s="15"/>
-      <c r="AH72" s="116"/>
-      <c r="AI72" s="116"/>
-      <c r="AJ72" s="116"/>
-      <c r="AK72" s="116"/>
-      <c r="AL72" s="116"/>
-      <c r="AM72" s="116"/>
-      <c r="AN72" s="116"/>
+      <c r="AH72" s="95"/>
+      <c r="AI72" s="95"/>
+      <c r="AJ72" s="95"/>
+      <c r="AK72" s="95"/>
+      <c r="AL72" s="95"/>
+      <c r="AM72" s="95"/>
+      <c r="AN72" s="95"/>
     </row>
     <row r="73" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="200"/>
+      <c r="D73" s="179"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -9026,19 +7970,19 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
       <c r="AG73" s="15"/>
-      <c r="AH73" s="116"/>
-      <c r="AI73" s="143"/>
-      <c r="AJ73" s="143"/>
-      <c r="AK73" s="143"/>
-      <c r="AL73" s="143"/>
-      <c r="AM73" s="143"/>
-      <c r="AN73" s="143"/>
+      <c r="AH73" s="95"/>
+      <c r="AI73" s="122"/>
+      <c r="AJ73" s="122"/>
+      <c r="AK73" s="122"/>
+      <c r="AL73" s="122"/>
+      <c r="AM73" s="122"/>
+      <c r="AN73" s="122"/>
     </row>
     <row r="74" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="200"/>
+      <c r="D74" s="179"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -9068,19 +8012,19 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
       <c r="AG74" s="15"/>
-      <c r="AH74" s="116"/>
-      <c r="AI74" s="143"/>
-      <c r="AJ74" s="143"/>
-      <c r="AK74" s="143"/>
-      <c r="AL74" s="143"/>
-      <c r="AM74" s="143"/>
-      <c r="AN74" s="143"/>
+      <c r="AH74" s="95"/>
+      <c r="AI74" s="122"/>
+      <c r="AJ74" s="122"/>
+      <c r="AK74" s="122"/>
+      <c r="AL74" s="122"/>
+      <c r="AM74" s="122"/>
+      <c r="AN74" s="122"/>
     </row>
     <row r="75" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="200"/>
+      <c r="D75" s="179"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -9110,19 +8054,19 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="15"/>
-      <c r="AH75" s="116"/>
-      <c r="AI75" s="143"/>
-      <c r="AJ75" s="143"/>
-      <c r="AK75" s="143"/>
-      <c r="AL75" s="143"/>
-      <c r="AM75" s="143"/>
-      <c r="AN75" s="143"/>
+      <c r="AH75" s="95"/>
+      <c r="AI75" s="122"/>
+      <c r="AJ75" s="122"/>
+      <c r="AK75" s="122"/>
+      <c r="AL75" s="122"/>
+      <c r="AM75" s="122"/>
+      <c r="AN75" s="122"/>
     </row>
     <row r="76" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="200"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -9152,19 +8096,19 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
       <c r="AG76" s="15"/>
-      <c r="AH76" s="116"/>
-      <c r="AI76" s="143"/>
-      <c r="AJ76" s="143"/>
-      <c r="AK76" s="143"/>
-      <c r="AL76" s="143"/>
-      <c r="AM76" s="143"/>
-      <c r="AN76" s="143"/>
+      <c r="AH76" s="95"/>
+      <c r="AI76" s="122"/>
+      <c r="AJ76" s="122"/>
+      <c r="AK76" s="122"/>
+      <c r="AL76" s="122"/>
+      <c r="AM76" s="122"/>
+      <c r="AN76" s="122"/>
     </row>
     <row r="77" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="200"/>
+      <c r="D77" s="179"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -9194,19 +8138,19 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
       <c r="AG77" s="15"/>
-      <c r="AH77" s="116"/>
-      <c r="AI77" s="143"/>
-      <c r="AJ77" s="143"/>
-      <c r="AK77" s="143"/>
-      <c r="AL77" s="143"/>
-      <c r="AM77" s="143"/>
-      <c r="AN77" s="143"/>
+      <c r="AH77" s="95"/>
+      <c r="AI77" s="122"/>
+      <c r="AJ77" s="122"/>
+      <c r="AK77" s="122"/>
+      <c r="AL77" s="122"/>
+      <c r="AM77" s="122"/>
+      <c r="AN77" s="122"/>
     </row>
     <row r="78" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="200"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -9236,19 +8180,19 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
       <c r="AG78" s="15"/>
-      <c r="AH78" s="116"/>
-      <c r="AI78" s="143"/>
-      <c r="AJ78" s="143"/>
-      <c r="AK78" s="143"/>
-      <c r="AL78" s="143"/>
-      <c r="AM78" s="143"/>
-      <c r="AN78" s="143"/>
+      <c r="AH78" s="95"/>
+      <c r="AI78" s="122"/>
+      <c r="AJ78" s="122"/>
+      <c r="AK78" s="122"/>
+      <c r="AL78" s="122"/>
+      <c r="AM78" s="122"/>
+      <c r="AN78" s="122"/>
     </row>
     <row r="79" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="200"/>
+      <c r="D79" s="179"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -9278,19 +8222,19 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
       <c r="AG79" s="15"/>
-      <c r="AH79" s="116"/>
-      <c r="AI79" s="143"/>
-      <c r="AJ79" s="143"/>
-      <c r="AK79" s="143"/>
-      <c r="AL79" s="143"/>
-      <c r="AM79" s="143"/>
-      <c r="AN79" s="143"/>
+      <c r="AH79" s="95"/>
+      <c r="AI79" s="122"/>
+      <c r="AJ79" s="122"/>
+      <c r="AK79" s="122"/>
+      <c r="AL79" s="122"/>
+      <c r="AM79" s="122"/>
+      <c r="AN79" s="122"/>
     </row>
     <row r="80" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="200"/>
+      <c r="D80" s="179"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -9320,19 +8264,19 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
       <c r="AG80" s="15"/>
-      <c r="AH80" s="116"/>
-      <c r="AI80" s="143"/>
-      <c r="AJ80" s="143"/>
-      <c r="AK80" s="143"/>
-      <c r="AL80" s="143"/>
-      <c r="AM80" s="143"/>
-      <c r="AN80" s="143"/>
+      <c r="AH80" s="95"/>
+      <c r="AI80" s="122"/>
+      <c r="AJ80" s="122"/>
+      <c r="AK80" s="122"/>
+      <c r="AL80" s="122"/>
+      <c r="AM80" s="122"/>
+      <c r="AN80" s="122"/>
     </row>
     <row r="81" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="200"/>
+      <c r="D81" s="179"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -9362,19 +8306,19 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
       <c r="AG81" s="15"/>
-      <c r="AH81" s="116"/>
-      <c r="AI81" s="143"/>
-      <c r="AJ81" s="143"/>
-      <c r="AK81" s="143"/>
-      <c r="AL81" s="143"/>
-      <c r="AM81" s="143"/>
-      <c r="AN81" s="143"/>
+      <c r="AH81" s="95"/>
+      <c r="AI81" s="122"/>
+      <c r="AJ81" s="122"/>
+      <c r="AK81" s="122"/>
+      <c r="AL81" s="122"/>
+      <c r="AM81" s="122"/>
+      <c r="AN81" s="122"/>
     </row>
     <row r="82" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="200"/>
+      <c r="D82" s="179"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -9404,19 +8348,19 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
       <c r="AG82" s="15"/>
-      <c r="AH82" s="116"/>
-      <c r="AI82" s="143"/>
-      <c r="AJ82" s="143"/>
-      <c r="AK82" s="143"/>
-      <c r="AL82" s="143"/>
-      <c r="AM82" s="143"/>
-      <c r="AN82" s="143"/>
+      <c r="AH82" s="95"/>
+      <c r="AI82" s="122"/>
+      <c r="AJ82" s="122"/>
+      <c r="AK82" s="122"/>
+      <c r="AL82" s="122"/>
+      <c r="AM82" s="122"/>
+      <c r="AN82" s="122"/>
     </row>
     <row r="83" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="200"/>
+      <c r="D83" s="179"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -9446,19 +8390,19 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
       <c r="AG83" s="15"/>
-      <c r="AH83" s="116"/>
-      <c r="AI83" s="143"/>
-      <c r="AJ83" s="143"/>
-      <c r="AK83" s="143"/>
-      <c r="AL83" s="143"/>
-      <c r="AM83" s="143"/>
-      <c r="AN83" s="143"/>
+      <c r="AH83" s="95"/>
+      <c r="AI83" s="122"/>
+      <c r="AJ83" s="122"/>
+      <c r="AK83" s="122"/>
+      <c r="AL83" s="122"/>
+      <c r="AM83" s="122"/>
+      <c r="AN83" s="122"/>
     </row>
     <row r="84" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="200"/>
+      <c r="D84" s="179"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -9488,19 +8432,19 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
       <c r="AG84" s="15"/>
-      <c r="AH84" s="116"/>
-      <c r="AI84" s="143"/>
-      <c r="AJ84" s="143"/>
-      <c r="AK84" s="143"/>
-      <c r="AL84" s="143"/>
-      <c r="AM84" s="143"/>
-      <c r="AN84" s="143"/>
+      <c r="AH84" s="95"/>
+      <c r="AI84" s="122"/>
+      <c r="AJ84" s="122"/>
+      <c r="AK84" s="122"/>
+      <c r="AL84" s="122"/>
+      <c r="AM84" s="122"/>
+      <c r="AN84" s="122"/>
     </row>
     <row r="85" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="200"/>
+      <c r="D85" s="179"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -9530,19 +8474,19 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
       <c r="AG85" s="15"/>
-      <c r="AH85" s="116"/>
-      <c r="AI85" s="143"/>
-      <c r="AJ85" s="143"/>
-      <c r="AK85" s="143"/>
-      <c r="AL85" s="143"/>
-      <c r="AM85" s="143"/>
-      <c r="AN85" s="143"/>
+      <c r="AH85" s="95"/>
+      <c r="AI85" s="122"/>
+      <c r="AJ85" s="122"/>
+      <c r="AK85" s="122"/>
+      <c r="AL85" s="122"/>
+      <c r="AM85" s="122"/>
+      <c r="AN85" s="122"/>
     </row>
     <row r="86" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="200"/>
+      <c r="D86" s="179"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -9572,19 +8516,19 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
       <c r="AG86" s="15"/>
-      <c r="AH86" s="116"/>
-      <c r="AI86" s="143"/>
-      <c r="AJ86" s="143"/>
-      <c r="AK86" s="143"/>
-      <c r="AL86" s="143"/>
-      <c r="AM86" s="143"/>
-      <c r="AN86" s="143"/>
+      <c r="AH86" s="95"/>
+      <c r="AI86" s="122"/>
+      <c r="AJ86" s="122"/>
+      <c r="AK86" s="122"/>
+      <c r="AL86" s="122"/>
+      <c r="AM86" s="122"/>
+      <c r="AN86" s="122"/>
     </row>
     <row r="87" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="200"/>
+      <c r="D87" s="179"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -9614,19 +8558,19 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
       <c r="AG87" s="15"/>
-      <c r="AH87" s="116"/>
-      <c r="AI87" s="143"/>
-      <c r="AJ87" s="143"/>
-      <c r="AK87" s="143"/>
-      <c r="AL87" s="143"/>
-      <c r="AM87" s="143"/>
-      <c r="AN87" s="143"/>
+      <c r="AH87" s="95"/>
+      <c r="AI87" s="122"/>
+      <c r="AJ87" s="122"/>
+      <c r="AK87" s="122"/>
+      <c r="AL87" s="122"/>
+      <c r="AM87" s="122"/>
+      <c r="AN87" s="122"/>
     </row>
     <row r="88" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="200"/>
+      <c r="D88" s="179"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -9656,19 +8600,19 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
       <c r="AG88" s="15"/>
-      <c r="AH88" s="116"/>
-      <c r="AI88" s="143"/>
-      <c r="AJ88" s="143"/>
-      <c r="AK88" s="143"/>
-      <c r="AL88" s="143"/>
-      <c r="AM88" s="143"/>
-      <c r="AN88" s="143"/>
+      <c r="AH88" s="95"/>
+      <c r="AI88" s="122"/>
+      <c r="AJ88" s="122"/>
+      <c r="AK88" s="122"/>
+      <c r="AL88" s="122"/>
+      <c r="AM88" s="122"/>
+      <c r="AN88" s="122"/>
     </row>
     <row r="89" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="200"/>
+      <c r="D89" s="179"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -9698,19 +8642,19 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
       <c r="AG89" s="15"/>
-      <c r="AH89" s="116"/>
-      <c r="AI89" s="143"/>
-      <c r="AJ89" s="143"/>
-      <c r="AK89" s="143"/>
-      <c r="AL89" s="143"/>
-      <c r="AM89" s="143"/>
-      <c r="AN89" s="143"/>
+      <c r="AH89" s="95"/>
+      <c r="AI89" s="122"/>
+      <c r="AJ89" s="122"/>
+      <c r="AK89" s="122"/>
+      <c r="AL89" s="122"/>
+      <c r="AM89" s="122"/>
+      <c r="AN89" s="122"/>
     </row>
     <row r="90" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="200"/>
+      <c r="D90" s="179"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -9740,19 +8684,19 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
       <c r="AG90" s="15"/>
-      <c r="AH90" s="116"/>
-      <c r="AI90" s="143"/>
-      <c r="AJ90" s="143"/>
-      <c r="AK90" s="143"/>
-      <c r="AL90" s="143"/>
-      <c r="AM90" s="143"/>
-      <c r="AN90" s="143"/>
+      <c r="AH90" s="95"/>
+      <c r="AI90" s="122"/>
+      <c r="AJ90" s="122"/>
+      <c r="AK90" s="122"/>
+      <c r="AL90" s="122"/>
+      <c r="AM90" s="122"/>
+      <c r="AN90" s="122"/>
     </row>
     <row r="91" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="200"/>
+      <c r="D91" s="179"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -9782,19 +8726,19 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
       <c r="AG91" s="15"/>
-      <c r="AH91" s="116"/>
-      <c r="AI91" s="143"/>
-      <c r="AJ91" s="143"/>
-      <c r="AK91" s="143"/>
-      <c r="AL91" s="143"/>
-      <c r="AM91" s="143"/>
-      <c r="AN91" s="143"/>
+      <c r="AH91" s="95"/>
+      <c r="AI91" s="122"/>
+      <c r="AJ91" s="122"/>
+      <c r="AK91" s="122"/>
+      <c r="AL91" s="122"/>
+      <c r="AM91" s="122"/>
+      <c r="AN91" s="122"/>
     </row>
     <row r="92" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="200"/>
+      <c r="D92" s="179"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -9824,19 +8768,19 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
       <c r="AG92" s="15"/>
-      <c r="AH92" s="116"/>
-      <c r="AI92" s="143"/>
-      <c r="AJ92" s="143"/>
-      <c r="AK92" s="143"/>
-      <c r="AL92" s="143"/>
-      <c r="AM92" s="143"/>
-      <c r="AN92" s="143"/>
+      <c r="AH92" s="95"/>
+      <c r="AI92" s="122"/>
+      <c r="AJ92" s="122"/>
+      <c r="AK92" s="122"/>
+      <c r="AL92" s="122"/>
+      <c r="AM92" s="122"/>
+      <c r="AN92" s="122"/>
     </row>
     <row r="93" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="200"/>
+      <c r="D93" s="179"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -9866,19 +8810,19 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
       <c r="AG93" s="15"/>
-      <c r="AH93" s="116"/>
-      <c r="AI93" s="143"/>
-      <c r="AJ93" s="143"/>
-      <c r="AK93" s="143"/>
-      <c r="AL93" s="143"/>
-      <c r="AM93" s="143"/>
-      <c r="AN93" s="143"/>
+      <c r="AH93" s="95"/>
+      <c r="AI93" s="122"/>
+      <c r="AJ93" s="122"/>
+      <c r="AK93" s="122"/>
+      <c r="AL93" s="122"/>
+      <c r="AM93" s="122"/>
+      <c r="AN93" s="122"/>
     </row>
     <row r="94" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="200"/>
+      <c r="D94" s="179"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -9908,19 +8852,19 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
       <c r="AG94" s="15"/>
-      <c r="AH94" s="116"/>
-      <c r="AI94" s="143"/>
-      <c r="AJ94" s="143"/>
-      <c r="AK94" s="143"/>
-      <c r="AL94" s="143"/>
-      <c r="AM94" s="143"/>
-      <c r="AN94" s="143"/>
+      <c r="AH94" s="95"/>
+      <c r="AI94" s="122"/>
+      <c r="AJ94" s="122"/>
+      <c r="AK94" s="122"/>
+      <c r="AL94" s="122"/>
+      <c r="AM94" s="122"/>
+      <c r="AN94" s="122"/>
     </row>
     <row r="95" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="200"/>
+      <c r="D95" s="179"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -9950,19 +8894,19 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
       <c r="AG95" s="15"/>
-      <c r="AH95" s="116"/>
-      <c r="AI95" s="143"/>
-      <c r="AJ95" s="143"/>
-      <c r="AK95" s="143"/>
-      <c r="AL95" s="143"/>
-      <c r="AM95" s="143"/>
-      <c r="AN95" s="143"/>
+      <c r="AH95" s="95"/>
+      <c r="AI95" s="122"/>
+      <c r="AJ95" s="122"/>
+      <c r="AK95" s="122"/>
+      <c r="AL95" s="122"/>
+      <c r="AM95" s="122"/>
+      <c r="AN95" s="122"/>
     </row>
     <row r="96" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="200"/>
+      <c r="D96" s="179"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -9992,19 +8936,19 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
       <c r="AG96" s="15"/>
-      <c r="AH96" s="116"/>
-      <c r="AI96" s="143"/>
-      <c r="AJ96" s="143"/>
-      <c r="AK96" s="143"/>
-      <c r="AL96" s="143"/>
-      <c r="AM96" s="143"/>
-      <c r="AN96" s="143"/>
+      <c r="AH96" s="95"/>
+      <c r="AI96" s="122"/>
+      <c r="AJ96" s="122"/>
+      <c r="AK96" s="122"/>
+      <c r="AL96" s="122"/>
+      <c r="AM96" s="122"/>
+      <c r="AN96" s="122"/>
     </row>
     <row r="97" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="200"/>
+      <c r="D97" s="179"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -10039,7 +8983,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="200"/>
+      <c r="D98" s="179"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -10069,19 +9013,19 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
       <c r="AG98" s="15"/>
-      <c r="AH98" s="113"/>
-      <c r="AI98" s="114"/>
-      <c r="AJ98" s="114"/>
-      <c r="AK98" s="114"/>
-      <c r="AL98" s="114"/>
-      <c r="AM98" s="114"/>
-      <c r="AN98" s="114"/>
+      <c r="AH98" s="92"/>
+      <c r="AI98" s="93"/>
+      <c r="AJ98" s="93"/>
+      <c r="AK98" s="93"/>
+      <c r="AL98" s="93"/>
+      <c r="AM98" s="93"/>
+      <c r="AN98" s="93"/>
     </row>
     <row r="99" spans="1:40" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="200"/>
+      <c r="D99" s="179"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -10111,19 +9055,19 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
       <c r="AG99" s="15"/>
-      <c r="AH99" s="116"/>
-      <c r="AI99" s="116"/>
-      <c r="AJ99" s="116"/>
-      <c r="AK99" s="116"/>
-      <c r="AL99" s="116"/>
-      <c r="AM99" s="116"/>
-      <c r="AN99" s="116"/>
+      <c r="AH99" s="95"/>
+      <c r="AI99" s="95"/>
+      <c r="AJ99" s="95"/>
+      <c r="AK99" s="95"/>
+      <c r="AL99" s="95"/>
+      <c r="AM99" s="95"/>
+      <c r="AN99" s="95"/>
     </row>
     <row r="100" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="200"/>
+      <c r="D100" s="179"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -10153,19 +9097,19 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
       <c r="AG100" s="15"/>
-      <c r="AH100" s="116"/>
-      <c r="AI100" s="116"/>
-      <c r="AJ100" s="116"/>
-      <c r="AK100" s="116"/>
-      <c r="AL100" s="116"/>
-      <c r="AM100" s="116"/>
-      <c r="AN100" s="116"/>
+      <c r="AH100" s="95"/>
+      <c r="AI100" s="95"/>
+      <c r="AJ100" s="95"/>
+      <c r="AK100" s="95"/>
+      <c r="AL100" s="95"/>
+      <c r="AM100" s="95"/>
+      <c r="AN100" s="95"/>
     </row>
     <row r="101" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="200"/>
+      <c r="D101" s="179"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -10195,19 +9139,19 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
       <c r="AG101" s="15"/>
-      <c r="AH101" s="116"/>
-      <c r="AI101" s="143"/>
-      <c r="AJ101" s="143"/>
-      <c r="AK101" s="143"/>
-      <c r="AL101" s="143"/>
-      <c r="AM101" s="143"/>
-      <c r="AN101" s="143"/>
+      <c r="AH101" s="95"/>
+      <c r="AI101" s="122"/>
+      <c r="AJ101" s="122"/>
+      <c r="AK101" s="122"/>
+      <c r="AL101" s="122"/>
+      <c r="AM101" s="122"/>
+      <c r="AN101" s="122"/>
     </row>
     <row r="102" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="200"/>
+      <c r="D102" s="179"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -10237,19 +9181,19 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
       <c r="AG102" s="15"/>
-      <c r="AH102" s="116"/>
-      <c r="AI102" s="143"/>
-      <c r="AJ102" s="143"/>
-      <c r="AK102" s="143"/>
-      <c r="AL102" s="143"/>
-      <c r="AM102" s="143"/>
-      <c r="AN102" s="143"/>
+      <c r="AH102" s="95"/>
+      <c r="AI102" s="122"/>
+      <c r="AJ102" s="122"/>
+      <c r="AK102" s="122"/>
+      <c r="AL102" s="122"/>
+      <c r="AM102" s="122"/>
+      <c r="AN102" s="122"/>
     </row>
     <row r="103" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="200"/>
+      <c r="D103" s="179"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -10279,19 +9223,19 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
       <c r="AG103" s="15"/>
-      <c r="AH103" s="116"/>
-      <c r="AI103" s="143"/>
-      <c r="AJ103" s="143"/>
-      <c r="AK103" s="143"/>
-      <c r="AL103" s="143"/>
-      <c r="AM103" s="143"/>
-      <c r="AN103" s="143"/>
+      <c r="AH103" s="95"/>
+      <c r="AI103" s="122"/>
+      <c r="AJ103" s="122"/>
+      <c r="AK103" s="122"/>
+      <c r="AL103" s="122"/>
+      <c r="AM103" s="122"/>
+      <c r="AN103" s="122"/>
     </row>
     <row r="104" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="200"/>
+      <c r="D104" s="179"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -10321,19 +9265,19 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
       <c r="AG104" s="15"/>
-      <c r="AH104" s="116"/>
-      <c r="AI104" s="143"/>
-      <c r="AJ104" s="143"/>
-      <c r="AK104" s="143"/>
-      <c r="AL104" s="143"/>
-      <c r="AM104" s="143"/>
-      <c r="AN104" s="143"/>
+      <c r="AH104" s="95"/>
+      <c r="AI104" s="122"/>
+      <c r="AJ104" s="122"/>
+      <c r="AK104" s="122"/>
+      <c r="AL104" s="122"/>
+      <c r="AM104" s="122"/>
+      <c r="AN104" s="122"/>
     </row>
     <row r="105" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="200"/>
+      <c r="D105" s="179"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -10363,19 +9307,19 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
       <c r="AG105" s="15"/>
-      <c r="AH105" s="116"/>
-      <c r="AI105" s="143"/>
-      <c r="AJ105" s="143"/>
-      <c r="AK105" s="143"/>
-      <c r="AL105" s="143"/>
-      <c r="AM105" s="143"/>
-      <c r="AN105" s="143"/>
+      <c r="AH105" s="95"/>
+      <c r="AI105" s="122"/>
+      <c r="AJ105" s="122"/>
+      <c r="AK105" s="122"/>
+      <c r="AL105" s="122"/>
+      <c r="AM105" s="122"/>
+      <c r="AN105" s="122"/>
     </row>
     <row r="106" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="200"/>
+      <c r="D106" s="179"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -10405,19 +9349,19 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
       <c r="AG106" s="15"/>
-      <c r="AH106" s="116"/>
-      <c r="AI106" s="143"/>
-      <c r="AJ106" s="143"/>
-      <c r="AK106" s="143"/>
-      <c r="AL106" s="143"/>
-      <c r="AM106" s="143"/>
-      <c r="AN106" s="143"/>
+      <c r="AH106" s="95"/>
+      <c r="AI106" s="122"/>
+      <c r="AJ106" s="122"/>
+      <c r="AK106" s="122"/>
+      <c r="AL106" s="122"/>
+      <c r="AM106" s="122"/>
+      <c r="AN106" s="122"/>
     </row>
     <row r="107" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="200"/>
+      <c r="D107" s="179"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -10447,19 +9391,19 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
       <c r="AG107" s="15"/>
-      <c r="AH107" s="116"/>
-      <c r="AI107" s="143"/>
-      <c r="AJ107" s="143"/>
-      <c r="AK107" s="143"/>
-      <c r="AL107" s="143"/>
-      <c r="AM107" s="143"/>
-      <c r="AN107" s="143"/>
+      <c r="AH107" s="95"/>
+      <c r="AI107" s="122"/>
+      <c r="AJ107" s="122"/>
+      <c r="AK107" s="122"/>
+      <c r="AL107" s="122"/>
+      <c r="AM107" s="122"/>
+      <c r="AN107" s="122"/>
     </row>
     <row r="108" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="200"/>
+      <c r="D108" s="179"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -10489,19 +9433,19 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
       <c r="AG108" s="15"/>
-      <c r="AH108" s="116"/>
-      <c r="AI108" s="143"/>
-      <c r="AJ108" s="143"/>
-      <c r="AK108" s="143"/>
-      <c r="AL108" s="143"/>
-      <c r="AM108" s="143"/>
-      <c r="AN108" s="143"/>
+      <c r="AH108" s="95"/>
+      <c r="AI108" s="122"/>
+      <c r="AJ108" s="122"/>
+      <c r="AK108" s="122"/>
+      <c r="AL108" s="122"/>
+      <c r="AM108" s="122"/>
+      <c r="AN108" s="122"/>
     </row>
     <row r="109" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="200"/>
+      <c r="D109" s="179"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -10531,19 +9475,19 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
       <c r="AG109" s="15"/>
-      <c r="AH109" s="116"/>
-      <c r="AI109" s="143"/>
-      <c r="AJ109" s="143"/>
-      <c r="AK109" s="143"/>
-      <c r="AL109" s="143"/>
-      <c r="AM109" s="143"/>
-      <c r="AN109" s="143"/>
+      <c r="AH109" s="95"/>
+      <c r="AI109" s="122"/>
+      <c r="AJ109" s="122"/>
+      <c r="AK109" s="122"/>
+      <c r="AL109" s="122"/>
+      <c r="AM109" s="122"/>
+      <c r="AN109" s="122"/>
     </row>
     <row r="110" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="200"/>
+      <c r="D110" s="179"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -10573,140 +9517,140 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
       <c r="AG110" s="15"/>
-      <c r="AH110" s="116"/>
-      <c r="AI110" s="143"/>
-      <c r="AJ110" s="143"/>
-      <c r="AK110" s="143"/>
-      <c r="AL110" s="143"/>
-      <c r="AM110" s="143"/>
-      <c r="AN110" s="143"/>
+      <c r="AH110" s="95"/>
+      <c r="AI110" s="122"/>
+      <c r="AJ110" s="122"/>
+      <c r="AK110" s="122"/>
+      <c r="AL110" s="122"/>
+      <c r="AM110" s="122"/>
+      <c r="AN110" s="122"/>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH111" s="116"/>
-      <c r="AI111" s="143"/>
-      <c r="AJ111" s="143"/>
-      <c r="AK111" s="143"/>
-      <c r="AL111" s="143"/>
-      <c r="AM111" s="143"/>
-      <c r="AN111" s="143"/>
+      <c r="AH111" s="95"/>
+      <c r="AI111" s="122"/>
+      <c r="AJ111" s="122"/>
+      <c r="AK111" s="122"/>
+      <c r="AL111" s="122"/>
+      <c r="AM111" s="122"/>
+      <c r="AN111" s="122"/>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="AH112" s="116"/>
-      <c r="AI112" s="143"/>
-      <c r="AJ112" s="143"/>
-      <c r="AK112" s="143"/>
-      <c r="AL112" s="143"/>
-      <c r="AM112" s="143"/>
-      <c r="AN112" s="143"/>
+      <c r="AH112" s="95"/>
+      <c r="AI112" s="122"/>
+      <c r="AJ112" s="122"/>
+      <c r="AK112" s="122"/>
+      <c r="AL112" s="122"/>
+      <c r="AM112" s="122"/>
+      <c r="AN112" s="122"/>
     </row>
     <row r="113" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH113" s="116"/>
-      <c r="AI113" s="143"/>
-      <c r="AJ113" s="143"/>
-      <c r="AK113" s="143"/>
-      <c r="AL113" s="143"/>
-      <c r="AM113" s="143"/>
-      <c r="AN113" s="143"/>
+      <c r="AH113" s="95"/>
+      <c r="AI113" s="122"/>
+      <c r="AJ113" s="122"/>
+      <c r="AK113" s="122"/>
+      <c r="AL113" s="122"/>
+      <c r="AM113" s="122"/>
+      <c r="AN113" s="122"/>
     </row>
     <row r="114" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH114" s="116"/>
-      <c r="AI114" s="143"/>
-      <c r="AJ114" s="143"/>
-      <c r="AK114" s="143"/>
-      <c r="AL114" s="143"/>
-      <c r="AM114" s="143"/>
-      <c r="AN114" s="143"/>
+      <c r="AH114" s="95"/>
+      <c r="AI114" s="122"/>
+      <c r="AJ114" s="122"/>
+      <c r="AK114" s="122"/>
+      <c r="AL114" s="122"/>
+      <c r="AM114" s="122"/>
+      <c r="AN114" s="122"/>
     </row>
     <row r="115" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH115" s="116"/>
-      <c r="AI115" s="143"/>
-      <c r="AJ115" s="143"/>
-      <c r="AK115" s="143"/>
-      <c r="AL115" s="143"/>
-      <c r="AM115" s="143"/>
-      <c r="AN115" s="143"/>
+      <c r="AH115" s="95"/>
+      <c r="AI115" s="122"/>
+      <c r="AJ115" s="122"/>
+      <c r="AK115" s="122"/>
+      <c r="AL115" s="122"/>
+      <c r="AM115" s="122"/>
+      <c r="AN115" s="122"/>
     </row>
     <row r="116" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH116" s="116"/>
-      <c r="AI116" s="143"/>
-      <c r="AJ116" s="143"/>
-      <c r="AK116" s="143"/>
-      <c r="AL116" s="143"/>
-      <c r="AM116" s="143"/>
-      <c r="AN116" s="143"/>
+      <c r="AH116" s="95"/>
+      <c r="AI116" s="122"/>
+      <c r="AJ116" s="122"/>
+      <c r="AK116" s="122"/>
+      <c r="AL116" s="122"/>
+      <c r="AM116" s="122"/>
+      <c r="AN116" s="122"/>
     </row>
     <row r="117" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH117" s="116"/>
-      <c r="AI117" s="143"/>
-      <c r="AJ117" s="143"/>
-      <c r="AK117" s="143"/>
-      <c r="AL117" s="143"/>
-      <c r="AM117" s="143"/>
-      <c r="AN117" s="143"/>
+      <c r="AH117" s="95"/>
+      <c r="AI117" s="122"/>
+      <c r="AJ117" s="122"/>
+      <c r="AK117" s="122"/>
+      <c r="AL117" s="122"/>
+      <c r="AM117" s="122"/>
+      <c r="AN117" s="122"/>
     </row>
     <row r="118" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH118" s="116"/>
-      <c r="AI118" s="143"/>
-      <c r="AJ118" s="143"/>
-      <c r="AK118" s="143"/>
-      <c r="AL118" s="143"/>
-      <c r="AM118" s="143"/>
-      <c r="AN118" s="143"/>
+      <c r="AH118" s="95"/>
+      <c r="AI118" s="122"/>
+      <c r="AJ118" s="122"/>
+      <c r="AK118" s="122"/>
+      <c r="AL118" s="122"/>
+      <c r="AM118" s="122"/>
+      <c r="AN118" s="122"/>
     </row>
     <row r="119" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH119" s="116"/>
-      <c r="AI119" s="143"/>
-      <c r="AJ119" s="143"/>
-      <c r="AK119" s="143"/>
-      <c r="AL119" s="143"/>
-      <c r="AM119" s="143"/>
-      <c r="AN119" s="143"/>
-      <c r="AO119" s="142"/>
+      <c r="AH119" s="95"/>
+      <c r="AI119" s="122"/>
+      <c r="AJ119" s="122"/>
+      <c r="AK119" s="122"/>
+      <c r="AL119" s="122"/>
+      <c r="AM119" s="122"/>
+      <c r="AN119" s="122"/>
+      <c r="AO119" s="121"/>
     </row>
     <row r="120" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH120" s="116"/>
-      <c r="AI120" s="143"/>
-      <c r="AJ120" s="143"/>
-      <c r="AK120" s="143"/>
-      <c r="AL120" s="143"/>
-      <c r="AM120" s="143"/>
-      <c r="AN120" s="143"/>
+      <c r="AH120" s="95"/>
+      <c r="AI120" s="122"/>
+      <c r="AJ120" s="122"/>
+      <c r="AK120" s="122"/>
+      <c r="AL120" s="122"/>
+      <c r="AM120" s="122"/>
+      <c r="AN120" s="122"/>
     </row>
     <row r="121" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH121" s="116"/>
-      <c r="AI121" s="143"/>
-      <c r="AJ121" s="143"/>
-      <c r="AK121" s="143"/>
-      <c r="AL121" s="143"/>
-      <c r="AM121" s="143"/>
-      <c r="AN121" s="143"/>
+      <c r="AH121" s="95"/>
+      <c r="AI121" s="122"/>
+      <c r="AJ121" s="122"/>
+      <c r="AK121" s="122"/>
+      <c r="AL121" s="122"/>
+      <c r="AM121" s="122"/>
+      <c r="AN121" s="122"/>
     </row>
     <row r="122" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH122" s="116"/>
-      <c r="AI122" s="143"/>
-      <c r="AJ122" s="143"/>
-      <c r="AK122" s="143"/>
-      <c r="AL122" s="143"/>
-      <c r="AM122" s="143"/>
-      <c r="AN122" s="143"/>
+      <c r="AH122" s="95"/>
+      <c r="AI122" s="122"/>
+      <c r="AJ122" s="122"/>
+      <c r="AK122" s="122"/>
+      <c r="AL122" s="122"/>
+      <c r="AM122" s="122"/>
+      <c r="AN122" s="122"/>
     </row>
     <row r="123" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH123" s="116"/>
-      <c r="AI123" s="143"/>
-      <c r="AJ123" s="143"/>
-      <c r="AK123" s="143"/>
-      <c r="AL123" s="143"/>
-      <c r="AM123" s="143"/>
-      <c r="AN123" s="143"/>
+      <c r="AH123" s="95"/>
+      <c r="AI123" s="122"/>
+      <c r="AJ123" s="122"/>
+      <c r="AK123" s="122"/>
+      <c r="AL123" s="122"/>
+      <c r="AM123" s="122"/>
+      <c r="AN123" s="122"/>
     </row>
     <row r="124" spans="34:41" x14ac:dyDescent="0.25">
-      <c r="AH124" s="116"/>
-      <c r="AI124" s="143"/>
-      <c r="AJ124" s="143"/>
-      <c r="AK124" s="143"/>
-      <c r="AL124" s="143"/>
-      <c r="AM124" s="143"/>
-      <c r="AN124" s="143"/>
+      <c r="AH124" s="95"/>
+      <c r="AI124" s="122"/>
+      <c r="AJ124" s="122"/>
+      <c r="AK124" s="122"/>
+      <c r="AL124" s="122"/>
+      <c r="AM124" s="122"/>
+      <c r="AN124" s="122"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
+++ b/WebRoot/costcenter_resources/UWPR_Current_Rates.xlsx
@@ -1,43 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Priska's Stuff\UWPR costcenter\UWPR_Rates\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PriskaStuff\UWPR costcenter\UWPR_Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF6718-1A2C-405F-B46B-650E295B662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20221101 year 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rates 2025_2026" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="In_Out_Both_No">'[1]Selection Options'!$A$15:$A$18</definedName>
+    <definedName name="rates">[2]Analysis!$I$6:$K$10</definedName>
     <definedName name="Yes_No">'[1]Selection Options'!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
-  <si>
-    <t>Rates effective 11/1/2022 subject to change without notice</t>
-  </si>
-  <si>
-    <t>revised 11/1/2022</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Instrumentation:</t>
   </si>
@@ -57,22 +65,10 @@
     <t>Orbitrap Fusion</t>
   </si>
   <si>
-    <t>QE+</t>
-  </si>
-  <si>
-    <t>Q Exactive plus</t>
-  </si>
-  <si>
     <t>TSQA</t>
   </si>
   <si>
     <t>TSQ Altis</t>
-  </si>
-  <si>
-    <t>TSQV</t>
-  </si>
-  <si>
-    <t>TSQ Vantage</t>
   </si>
   <si>
     <t>for a detailed description check out our resources webpage</t>
@@ -85,9 +81,6 @@
   </si>
   <si>
     <t>Exploris 2</t>
-  </si>
-  <si>
-    <t>QE +</t>
   </si>
   <si>
     <t>Hourly Rate</t>
@@ -113,17 +106,50 @@
   <si>
     <t>Exploris2</t>
   </si>
+  <si>
+    <t>Astral</t>
+  </si>
+  <si>
+    <t>Orbitrap Astral</t>
+  </si>
+  <si>
+    <t>Enter the number of samples:</t>
+  </si>
+  <si>
+    <t>Number of replicate LC-MS analyses per sample:</t>
+  </si>
+  <si>
+    <t>Number of blanks:</t>
+  </si>
+  <si>
+    <t>Number of extra QC (standards):</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Rates effective 9/1/2024 subject to change without notice</t>
+  </si>
+  <si>
+    <t>Total Estimated Cost:</t>
+  </si>
+  <si>
+    <t>revised 9/1/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +266,21 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -273,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -317,15 +358,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -455,12 +487,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -474,133 +510,83 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="13" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="13" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -613,26 +599,12 @@
     <xf numFmtId="4" fontId="11" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -641,14 +613,92 @@
     <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 4" xfId="3" xr:uid="{E0E1D623-BD03-40D9-BD0A-F0EE0A9DF2D5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,7 +726,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -837,7 +887,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="333375" y="352425"/>
-          <a:ext cx="2252327" cy="1471142"/>
+          <a:ext cx="2252327" cy="1461617"/>
           <a:chOff x="4591734" y="1323376"/>
           <a:chExt cx="2252327" cy="1471142"/>
         </a:xfrm>
@@ -2405,7 +2455,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Center - General"/>
@@ -2459,6 +2509,107 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions and Guidance"/>
+      <sheetName val="General Information"/>
+      <sheetName val="Center - Space"/>
+      <sheetName val="Usage"/>
+      <sheetName val="Salaries"/>
+      <sheetName val="Depreciation"/>
+      <sheetName val="Other Costs"/>
+      <sheetName val="Biennium Summary"/>
+      <sheetName val="Add'l Costs"/>
+      <sheetName val="Variance Analysis Report"/>
+      <sheetName val="Approval email"/>
+      <sheetName val="20181101"/>
+      <sheetName val="Analysis"/>
+      <sheetName val="Billings 02.01.17-11.30.17"/>
+      <sheetName val="UWPR rates"/>
+      <sheetName val="20180201"/>
+      <sheetName val="20190201"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12">
+        <row r="6">
+          <cell r="I6" t="str">
+            <v>Fusion</v>
+          </cell>
+          <cell r="J6">
+            <v>13.5</v>
+          </cell>
+          <cell r="K6">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7" t="str">
+            <v>LTQ-Orbitrap-1</v>
+          </cell>
+          <cell r="J7">
+            <v>8</v>
+          </cell>
+          <cell r="K7">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8" t="str">
+            <v>Lumos</v>
+          </cell>
+          <cell r="J8">
+            <v>13.5</v>
+          </cell>
+          <cell r="K8">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v>Q</v>
+          </cell>
+          <cell r="J9">
+            <v>13.5</v>
+          </cell>
+          <cell r="K9">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>TSQ-Vantage</v>
+          </cell>
+          <cell r="J10">
+            <v>8</v>
+          </cell>
+          <cell r="K10">
+            <v>16</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2726,12 +2877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane xSplit="15" ySplit="26" topLeftCell="P27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,82 +2900,76 @@
     <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="4" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J4" s="5" t="s">
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J5" s="5" t="s">
+    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J6" s="5" t="s">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="2" t="s">
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="12" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -2830,8 +2977,8 @@
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
@@ -2841,908 +2988,883 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="15"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="D15" s="82"/>
+      <c r="E15" s="20">
+        <v>17</v>
+      </c>
+      <c r="F15" s="20">
+        <v>17</v>
+      </c>
+      <c r="G15" s="20">
+        <v>17</v>
+      </c>
+      <c r="H15" s="20">
+        <v>17</v>
+      </c>
+      <c r="I15" s="20">
+        <v>17</v>
+      </c>
+      <c r="J15" s="20">
+        <v>15</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="80">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33">
+        <f t="shared" ref="E19" si="0">$D$17*E15</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="33">
+        <f>$D$17*F15</f>
+        <v>17</v>
+      </c>
+      <c r="G19" s="33">
+        <f>$D$17*G15</f>
+        <v>17</v>
+      </c>
+      <c r="H19" s="33">
+        <f>$D$17*H15</f>
+        <v>17</v>
+      </c>
+      <c r="I19" s="33">
+        <f>$D$17*I15</f>
+        <v>17</v>
+      </c>
+      <c r="J19" s="33">
+        <f>$D$17*J15</f>
+        <v>15</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36">
+        <v>27</v>
+      </c>
+      <c r="F20" s="36">
+        <v>27</v>
+      </c>
+      <c r="G20" s="36">
+        <v>27</v>
+      </c>
+      <c r="H20" s="36">
+        <v>27</v>
+      </c>
+      <c r="I20" s="36">
+        <v>27</v>
+      </c>
+      <c r="J20" s="36">
+        <v>27</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+    </row>
+    <row r="21" spans="2:22" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="40">
+        <f t="shared" ref="E21" si="1">E20+E19</f>
+        <v>44</v>
+      </c>
+      <c r="F21" s="40">
+        <f>F20+F19</f>
+        <v>44</v>
+      </c>
+      <c r="G21" s="40">
+        <f>G20+G19</f>
+        <v>44</v>
+      </c>
+      <c r="H21" s="40">
+        <f>H20+H19</f>
+        <v>44</v>
+      </c>
+      <c r="I21" s="40">
+        <f>I20+I19</f>
+        <v>44</v>
+      </c>
+      <c r="J21" s="40">
+        <f>J20+J19</f>
+        <v>42</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+    </row>
+    <row r="23" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+    </row>
+    <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+    </row>
+    <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+    </row>
+    <row r="28" spans="2:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="51"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="64"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="G30" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30">
-        <v>13.5</v>
-      </c>
-      <c r="F15" s="30">
-        <v>9</v>
-      </c>
-      <c r="G15" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="H15" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="I15" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="J15" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="K15" s="30">
-        <v>15.5</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52">
-        <f t="shared" ref="E19:K19" si="0">$D$17*E15</f>
-        <v>13.5</v>
-      </c>
-      <c r="F19" s="52">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G19" s="52">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="H19" s="52">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="I19" s="52">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="J19" s="52">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="K19" s="52">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="M19" s="49"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="54"/>
-    </row>
-    <row r="20" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57">
-        <v>25</v>
-      </c>
-      <c r="F20" s="57">
-        <v>25</v>
-      </c>
-      <c r="G20" s="57">
-        <v>25</v>
-      </c>
-      <c r="H20" s="57">
-        <v>25</v>
-      </c>
-      <c r="I20" s="57">
-        <v>25</v>
-      </c>
-      <c r="J20" s="57">
-        <v>25</v>
-      </c>
-      <c r="K20" s="57">
-        <v>25</v>
-      </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="54"/>
-    </row>
-    <row r="21" spans="2:23" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59"/>
-      <c r="C21" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62">
-        <f>E20+E19</f>
-        <v>38.5</v>
-      </c>
-      <c r="F21" s="62">
-        <f t="shared" ref="F21:K21" si="1">F20+F19</f>
-        <v>34</v>
-      </c>
-      <c r="G21" s="62">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="H21" s="62">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="I21" s="62">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="J21" s="62">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="K21" s="62">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
-    </row>
-    <row r="22" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="15"/>
-    </row>
-    <row r="25" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="15"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="str">
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="81" t="str">
         <f>C15</f>
         <v>Hourly Rate</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="85">
-        <v>27</v>
-      </c>
-      <c r="F31" s="85">
-        <v>18</v>
-      </c>
-      <c r="G31" s="85">
-        <v>31</v>
-      </c>
-      <c r="H31" s="85">
-        <v>31</v>
-      </c>
-      <c r="I31" s="85">
-        <v>31</v>
-      </c>
-      <c r="J31" s="85">
-        <v>31</v>
-      </c>
-      <c r="K31" s="85">
-        <v>31</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="15"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="55">
+        <v>34</v>
+      </c>
+      <c r="F31" s="55">
+        <v>34</v>
+      </c>
+      <c r="G31" s="55">
+        <v>34</v>
+      </c>
+      <c r="H31" s="55">
+        <v>34</v>
+      </c>
+      <c r="I31" s="55">
+        <v>34</v>
+      </c>
+      <c r="J31" s="55">
+        <v>30</v>
+      </c>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="15"/>
-    </row>
-    <row r="33" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="39">
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="68">
         <v>1</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="15"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="15"/>
-    </row>
-    <row r="35" spans="2:23" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="C35" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52">
-        <f t="shared" ref="E35:K35" si="2">$D$33*E31</f>
+      <c r="E33" s="84">
+        <f>ROUNDUP((2+($D33*$D34*140)/60),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+    </row>
+    <row r="34" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="71">
+        <v>1</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+    </row>
+    <row r="35" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="71">
+        <v>0</v>
+      </c>
+      <c r="E35" s="77">
+        <f>ROUNDUP((($D35*40)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+    </row>
+    <row r="36" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="71">
+        <v>0</v>
+      </c>
+      <c r="E36" s="77">
+        <f>ROUNDUP((($D36*70)/60),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+    </row>
+    <row r="37" spans="2:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="52">
+      <c r="D37" s="75">
+        <f>D33*D34+D35+D36</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="73">
+        <f>SUM(E33:E36)</f>
+        <v>5</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33">
+        <f>$E$37*E31</f>
+        <v>170</v>
+      </c>
+      <c r="F39" s="33">
+        <f t="shared" ref="F39:J39" si="2">$E$37*F31</f>
+        <v>170</v>
+      </c>
+      <c r="G39" s="33">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="G35" s="52">
+        <v>170</v>
+      </c>
+      <c r="H39" s="33">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H35" s="52">
+        <v>170</v>
+      </c>
+      <c r="I39" s="33">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="I35" s="52">
+        <v>170</v>
+      </c>
+      <c r="J39" s="33">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="J35" s="52">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="K35" s="52">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="54"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57">
-        <v>25</v>
-      </c>
-      <c r="F36" s="57">
-        <v>25</v>
-      </c>
-      <c r="G36" s="57">
-        <v>25</v>
-      </c>
-      <c r="H36" s="57">
-        <v>25</v>
-      </c>
-      <c r="I36" s="57">
-        <v>25</v>
-      </c>
-      <c r="J36" s="57">
-        <v>25</v>
-      </c>
-      <c r="K36" s="57">
-        <v>25</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="15"/>
-    </row>
-    <row r="37" spans="2:23" s="63" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="86"/>
-      <c r="C37" s="60" t="str">
-        <f>C21</f>
-        <v>Total Cost:</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62">
-        <f>E36+E35</f>
-        <v>52</v>
-      </c>
-      <c r="F37" s="62">
-        <f t="shared" ref="F37:K37" si="3">F36+F35</f>
-        <v>43</v>
-      </c>
-      <c r="G37" s="62">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="H37" s="62">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="I37" s="62">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="J37" s="62">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="K37" s="62">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="N37" s="64"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="67"/>
-    </row>
-    <row r="38" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="15"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+        <v>150</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+      <c r="C40" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36">
+        <v>27</v>
+      </c>
+      <c r="F40" s="36">
+        <v>27</v>
+      </c>
+      <c r="G40" s="36">
+        <v>27</v>
+      </c>
+      <c r="H40" s="36">
+        <v>27</v>
+      </c>
+      <c r="I40" s="36">
+        <v>27</v>
+      </c>
+      <c r="J40" s="36">
+        <v>27</v>
+      </c>
+      <c r="N40" s="22"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+    </row>
+    <row r="41" spans="2:22" s="41" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="56"/>
+      <c r="C41" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40">
+        <f t="shared" ref="E41" si="3">E40+E39</f>
+        <v>197</v>
+      </c>
+      <c r="F41" s="40">
+        <f>F40+F39</f>
+        <v>197</v>
+      </c>
+      <c r="G41" s="40">
+        <f>G40+G39</f>
+        <v>197</v>
+      </c>
+      <c r="H41" s="40">
+        <f>H40+H39</f>
+        <v>197</v>
+      </c>
+      <c r="I41" s="40">
+        <f>I40+I39</f>
+        <v>197</v>
+      </c>
+      <c r="J41" s="40">
+        <f>J40+J39</f>
+        <v>177</v>
+      </c>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="D17 D33 O17 O33" name="Range1"/>
+    <protectedRange sqref="D17 E37 O17 O33:O37 D33:D36" name="Range1"/>
   </protectedRanges>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="N31:O31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1" display="for a detailed description check out our website resources page"/>
+    <hyperlink ref="J8" r:id="rId1" display="for a detailed description check out our website resources page" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
